--- a/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22358400</v>
+        <v>22042800</v>
       </c>
       <c r="E8" s="3">
-        <v>21920300</v>
+        <v>21610900</v>
       </c>
       <c r="F8" s="3">
-        <v>21019100</v>
+        <v>20722400</v>
       </c>
       <c r="G8" s="3">
-        <v>21416200</v>
+        <v>21113900</v>
       </c>
       <c r="H8" s="3">
-        <v>21734500</v>
+        <v>21427700</v>
       </c>
       <c r="I8" s="3">
-        <v>21702900</v>
+        <v>21396500</v>
       </c>
       <c r="J8" s="3">
-        <v>22215100</v>
+        <v>21901500</v>
       </c>
       <c r="K8" s="3">
         <v>26087600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-709300</v>
+        <v>-699300</v>
       </c>
       <c r="E15" s="3">
-        <v>-768600</v>
+        <v>-757700</v>
       </c>
       <c r="F15" s="3">
-        <v>-1267300</v>
+        <v>-1249400</v>
       </c>
       <c r="G15" s="3">
-        <v>-826400</v>
+        <v>-814800</v>
       </c>
       <c r="H15" s="3">
-        <v>-1124600</v>
+        <v>-1108700</v>
       </c>
       <c r="I15" s="3">
-        <v>-686500</v>
+        <v>-676800</v>
       </c>
       <c r="J15" s="3">
-        <v>-608400</v>
+        <v>-599800</v>
       </c>
       <c r="K15" s="3">
         <v>-437900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11514400</v>
+        <v>11351800</v>
       </c>
       <c r="E17" s="3">
-        <v>11290200</v>
+        <v>11130900</v>
       </c>
       <c r="F17" s="3">
-        <v>11150900</v>
+        <v>10993500</v>
       </c>
       <c r="G17" s="3">
-        <v>11978100</v>
+        <v>11809000</v>
       </c>
       <c r="H17" s="3">
-        <v>12639600</v>
+        <v>12461200</v>
       </c>
       <c r="I17" s="3">
-        <v>13026600</v>
+        <v>12842700</v>
       </c>
       <c r="J17" s="3">
-        <v>14156600</v>
+        <v>13956700</v>
       </c>
       <c r="K17" s="3">
         <v>18100000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10844000</v>
+        <v>10691000</v>
       </c>
       <c r="E18" s="3">
-        <v>10630000</v>
+        <v>10480000</v>
       </c>
       <c r="F18" s="3">
-        <v>9868200</v>
+        <v>9728900</v>
       </c>
       <c r="G18" s="3">
-        <v>9438200</v>
+        <v>9304900</v>
       </c>
       <c r="H18" s="3">
-        <v>9094900</v>
+        <v>8966500</v>
       </c>
       <c r="I18" s="3">
-        <v>8676300</v>
+        <v>8553800</v>
       </c>
       <c r="J18" s="3">
-        <v>8058500</v>
+        <v>7944700</v>
       </c>
       <c r="K18" s="3">
         <v>7987700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4283000</v>
+        <v>-4222500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2735100</v>
+        <v>-2696500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2118600</v>
+        <v>-2088700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2274700</v>
+        <v>-2242600</v>
       </c>
       <c r="H20" s="3">
-        <v>-1412000</v>
+        <v>-1392000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1448300</v>
+        <v>-1427900</v>
       </c>
       <c r="J20" s="3">
-        <v>-1481900</v>
+        <v>-1461000</v>
       </c>
       <c r="K20" s="3">
         <v>-1751800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7288900</v>
+        <v>7182800</v>
       </c>
       <c r="E21" s="3">
-        <v>8666600</v>
+        <v>8540800</v>
       </c>
       <c r="F21" s="3">
-        <v>8605500</v>
+        <v>8480300</v>
       </c>
       <c r="G21" s="3">
-        <v>7978200</v>
+        <v>7862000</v>
       </c>
       <c r="H21" s="3">
-        <v>8810100</v>
+        <v>8680700</v>
       </c>
       <c r="I21" s="3">
-        <v>7916000</v>
+        <v>7801200</v>
       </c>
       <c r="J21" s="3">
-        <v>7186300</v>
+        <v>7082200</v>
       </c>
       <c r="K21" s="3">
         <v>6838000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6561100</v>
+        <v>6468500</v>
       </c>
       <c r="E23" s="3">
-        <v>7895000</v>
+        <v>7783500</v>
       </c>
       <c r="F23" s="3">
-        <v>7749600</v>
+        <v>7640200</v>
       </c>
       <c r="G23" s="3">
-        <v>7163400</v>
+        <v>7062300</v>
       </c>
       <c r="H23" s="3">
-        <v>7683000</v>
+        <v>7574500</v>
       </c>
       <c r="I23" s="3">
-        <v>7228000</v>
+        <v>7126000</v>
       </c>
       <c r="J23" s="3">
-        <v>6576600</v>
+        <v>6483700</v>
       </c>
       <c r="K23" s="3">
         <v>6235900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1991400</v>
+        <v>1963300</v>
       </c>
       <c r="E24" s="3">
-        <v>2444300</v>
+        <v>2409800</v>
       </c>
       <c r="F24" s="3">
-        <v>2367600</v>
+        <v>2334200</v>
       </c>
       <c r="G24" s="3">
-        <v>2142800</v>
+        <v>2112600</v>
       </c>
       <c r="H24" s="3">
-        <v>2253200</v>
+        <v>2221400</v>
       </c>
       <c r="I24" s="3">
-        <v>2096400</v>
+        <v>2066800</v>
       </c>
       <c r="J24" s="3">
-        <v>1983300</v>
+        <v>1955300</v>
       </c>
       <c r="K24" s="3">
         <v>1989500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4569700</v>
+        <v>4505200</v>
       </c>
       <c r="E26" s="3">
-        <v>5450600</v>
+        <v>5373700</v>
       </c>
       <c r="F26" s="3">
-        <v>5382000</v>
+        <v>5306000</v>
       </c>
       <c r="G26" s="3">
-        <v>5020600</v>
+        <v>4949700</v>
       </c>
       <c r="H26" s="3">
-        <v>5429800</v>
+        <v>5353100</v>
       </c>
       <c r="I26" s="3">
-        <v>5131600</v>
+        <v>5059200</v>
       </c>
       <c r="J26" s="3">
-        <v>4593200</v>
+        <v>4528400</v>
       </c>
       <c r="K26" s="3">
         <v>4246400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4561600</v>
+        <v>4497200</v>
       </c>
       <c r="E27" s="3">
-        <v>5444600</v>
+        <v>5367700</v>
       </c>
       <c r="F27" s="3">
-        <v>5373200</v>
+        <v>5297400</v>
       </c>
       <c r="G27" s="3">
-        <v>5007100</v>
+        <v>4936400</v>
       </c>
       <c r="H27" s="3">
-        <v>5388000</v>
+        <v>5312000</v>
       </c>
       <c r="I27" s="3">
-        <v>5081800</v>
+        <v>5010100</v>
       </c>
       <c r="J27" s="3">
-        <v>4535300</v>
+        <v>4471300</v>
       </c>
       <c r="K27" s="3">
         <v>4191900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4283000</v>
+        <v>4222500</v>
       </c>
       <c r="E32" s="3">
-        <v>2735100</v>
+        <v>2696500</v>
       </c>
       <c r="F32" s="3">
-        <v>2118600</v>
+        <v>2088700</v>
       </c>
       <c r="G32" s="3">
-        <v>2274700</v>
+        <v>2242600</v>
       </c>
       <c r="H32" s="3">
-        <v>1412000</v>
+        <v>1392000</v>
       </c>
       <c r="I32" s="3">
-        <v>1448300</v>
+        <v>1427900</v>
       </c>
       <c r="J32" s="3">
-        <v>1481900</v>
+        <v>1461000</v>
       </c>
       <c r="K32" s="3">
         <v>1751800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4561600</v>
+        <v>4497200</v>
       </c>
       <c r="E33" s="3">
-        <v>5444600</v>
+        <v>5367700</v>
       </c>
       <c r="F33" s="3">
-        <v>5373200</v>
+        <v>5297400</v>
       </c>
       <c r="G33" s="3">
-        <v>5007100</v>
+        <v>4936400</v>
       </c>
       <c r="H33" s="3">
-        <v>5388000</v>
+        <v>5312000</v>
       </c>
       <c r="I33" s="3">
-        <v>5081800</v>
+        <v>5010100</v>
       </c>
       <c r="J33" s="3">
-        <v>4535300</v>
+        <v>4471300</v>
       </c>
       <c r="K33" s="3">
         <v>4191900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4561600</v>
+        <v>4497200</v>
       </c>
       <c r="E35" s="3">
-        <v>5444600</v>
+        <v>5367700</v>
       </c>
       <c r="F35" s="3">
-        <v>5373200</v>
+        <v>5297400</v>
       </c>
       <c r="G35" s="3">
-        <v>5007100</v>
+        <v>4936400</v>
       </c>
       <c r="H35" s="3">
-        <v>5388000</v>
+        <v>5312000</v>
       </c>
       <c r="I35" s="3">
-        <v>5081800</v>
+        <v>5010100</v>
       </c>
       <c r="J35" s="3">
-        <v>4535300</v>
+        <v>4471300</v>
       </c>
       <c r="K35" s="3">
         <v>4191900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13845600</v>
+        <v>13714000</v>
       </c>
       <c r="E41" s="3">
-        <v>18769300</v>
+        <v>18590800</v>
       </c>
       <c r="F41" s="3">
-        <v>26306200</v>
+        <v>26056100</v>
       </c>
       <c r="G41" s="3">
-        <v>13351000</v>
+        <v>13224000</v>
       </c>
       <c r="H41" s="3">
-        <v>11273400</v>
+        <v>11166200</v>
       </c>
       <c r="I41" s="3">
-        <v>24865300</v>
+        <v>24628900</v>
       </c>
       <c r="J41" s="3">
-        <v>26144000</v>
+        <v>25895400</v>
       </c>
       <c r="K41" s="3">
         <v>16096300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32167400</v>
+        <v>31861500</v>
       </c>
       <c r="E42" s="3">
-        <v>34943500</v>
+        <v>34611200</v>
       </c>
       <c r="F42" s="3">
-        <v>37175800</v>
+        <v>36822300</v>
       </c>
       <c r="G42" s="3">
-        <v>41667400</v>
+        <v>41271200</v>
       </c>
       <c r="H42" s="3">
-        <v>56894100</v>
+        <v>56353000</v>
       </c>
       <c r="I42" s="3">
-        <v>60749700</v>
+        <v>60172000</v>
       </c>
       <c r="J42" s="3">
-        <v>85261000</v>
+        <v>84450200</v>
       </c>
       <c r="K42" s="3">
         <v>35512300</v>
@@ -1850,19 +1850,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86800</v>
+        <v>86000</v>
       </c>
       <c r="E47" s="3">
-        <v>77400</v>
+        <v>76700</v>
       </c>
       <c r="F47" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="3">
-        <v>488600</v>
+        <v>484000</v>
       </c>
       <c r="H47" s="3">
-        <v>508800</v>
+        <v>503900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>777300</v>
+        <v>769900</v>
       </c>
       <c r="E48" s="3">
-        <v>894400</v>
+        <v>885900</v>
       </c>
       <c r="F48" s="3">
-        <v>1000800</v>
+        <v>991200</v>
       </c>
       <c r="G48" s="3">
-        <v>1169000</v>
+        <v>1157900</v>
       </c>
       <c r="H48" s="3">
-        <v>1071400</v>
+        <v>1061200</v>
       </c>
       <c r="I48" s="3">
-        <v>977200</v>
+        <v>967900</v>
       </c>
       <c r="J48" s="3">
-        <v>1580200</v>
+        <v>1565200</v>
       </c>
       <c r="K48" s="3">
         <v>804400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8044400</v>
+        <v>7967900</v>
       </c>
       <c r="E49" s="3">
-        <v>7916500</v>
+        <v>7841200</v>
       </c>
       <c r="F49" s="3">
-        <v>7841800</v>
+        <v>7767200</v>
       </c>
       <c r="G49" s="3">
-        <v>7753000</v>
+        <v>7679200</v>
       </c>
       <c r="H49" s="3">
-        <v>7789300</v>
+        <v>7715200</v>
       </c>
       <c r="I49" s="3">
-        <v>8483800</v>
+        <v>8403200</v>
       </c>
       <c r="J49" s="3">
-        <v>16611000</v>
+        <v>16453000</v>
       </c>
       <c r="K49" s="3">
         <v>8584800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1378300</v>
+        <v>1365200</v>
       </c>
       <c r="E52" s="3">
-        <v>794100</v>
+        <v>786600</v>
       </c>
       <c r="F52" s="3">
-        <v>748400</v>
+        <v>741300</v>
       </c>
       <c r="G52" s="3">
-        <v>1044500</v>
+        <v>1034600</v>
       </c>
       <c r="H52" s="3">
-        <v>926700</v>
+        <v>917900</v>
       </c>
       <c r="I52" s="3">
-        <v>940200</v>
+        <v>931200</v>
       </c>
       <c r="J52" s="3">
-        <v>1193200</v>
+        <v>1181900</v>
       </c>
       <c r="K52" s="3">
         <v>1539500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>610159000</v>
+        <v>604357000</v>
       </c>
       <c r="E54" s="3">
-        <v>591965000</v>
+        <v>586336000</v>
       </c>
       <c r="F54" s="3">
-        <v>573312000</v>
+        <v>567860000</v>
       </c>
       <c r="G54" s="3">
-        <v>564783000</v>
+        <v>559412000</v>
       </c>
       <c r="H54" s="3">
-        <v>546581000</v>
+        <v>541383000</v>
       </c>
       <c r="I54" s="3">
-        <v>518777000</v>
+        <v>513843000</v>
       </c>
       <c r="J54" s="3">
-        <v>471838000</v>
+        <v>467351000</v>
       </c>
       <c r="K54" s="3">
         <v>477538000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>776600</v>
+        <v>769300</v>
       </c>
       <c r="E57" s="3">
-        <v>948900</v>
+        <v>939900</v>
       </c>
       <c r="F57" s="3">
-        <v>746400</v>
+        <v>739300</v>
       </c>
       <c r="G57" s="3">
-        <v>756500</v>
+        <v>749300</v>
       </c>
       <c r="H57" s="3">
-        <v>858700</v>
+        <v>850600</v>
       </c>
       <c r="I57" s="3">
-        <v>693200</v>
+        <v>686600</v>
       </c>
       <c r="J57" s="3">
-        <v>685800</v>
+        <v>679300</v>
       </c>
       <c r="K57" s="3">
         <v>648800</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27678500</v>
+        <v>27415300</v>
       </c>
       <c r="E58" s="3">
-        <v>20974000</v>
+        <v>20774600</v>
       </c>
       <c r="F58" s="3">
-        <v>24961600</v>
+        <v>24724200</v>
       </c>
       <c r="G58" s="3">
-        <v>17769200</v>
+        <v>17600200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>33240100</v>
+        <v>32924000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1877700</v>
+        <v>1859800</v>
       </c>
       <c r="E59" s="3">
-        <v>2196700</v>
+        <v>2175800</v>
       </c>
       <c r="F59" s="3">
-        <v>2042600</v>
+        <v>2023100</v>
       </c>
       <c r="G59" s="3">
-        <v>1994800</v>
+        <v>1975800</v>
       </c>
       <c r="H59" s="3">
-        <v>2130000</v>
+        <v>2109800</v>
       </c>
       <c r="I59" s="3">
-        <v>2408700</v>
+        <v>2385800</v>
       </c>
       <c r="J59" s="3">
-        <v>2601100</v>
+        <v>2576400</v>
       </c>
       <c r="K59" s="3">
         <v>2367300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>119421000</v>
+        <v>118285000</v>
       </c>
       <c r="E61" s="3">
-        <v>109169000</v>
+        <v>108131000</v>
       </c>
       <c r="F61" s="3">
-        <v>102612000</v>
+        <v>101636000</v>
       </c>
       <c r="G61" s="3">
-        <v>110140000</v>
+        <v>109092000</v>
       </c>
       <c r="H61" s="3">
-        <v>100298000</v>
+        <v>99344100</v>
       </c>
       <c r="I61" s="3">
-        <v>88356800</v>
+        <v>87516600</v>
       </c>
       <c r="J61" s="3">
-        <v>82266800</v>
+        <v>81484500</v>
       </c>
       <c r="K61" s="3">
         <v>6747400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2162300</v>
+        <v>2141800</v>
       </c>
       <c r="E62" s="3">
-        <v>1326500</v>
+        <v>1313900</v>
       </c>
       <c r="F62" s="3">
-        <v>1138700</v>
+        <v>1127900</v>
       </c>
       <c r="G62" s="3">
-        <v>1169700</v>
+        <v>1158600</v>
       </c>
       <c r="H62" s="3">
-        <v>1168300</v>
+        <v>1157200</v>
       </c>
       <c r="I62" s="3">
-        <v>1337900</v>
+        <v>1325200</v>
       </c>
       <c r="J62" s="3">
-        <v>1240300</v>
+        <v>1228500</v>
       </c>
       <c r="K62" s="3">
         <v>1839500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>566109000</v>
+        <v>560725000</v>
       </c>
       <c r="E66" s="3">
-        <v>548543000</v>
+        <v>543326000</v>
       </c>
       <c r="F66" s="3">
-        <v>532065000</v>
+        <v>527005000</v>
       </c>
       <c r="G66" s="3">
-        <v>525668000</v>
+        <v>520669000</v>
       </c>
       <c r="H66" s="3">
-        <v>510846000</v>
+        <v>505988000</v>
       </c>
       <c r="I66" s="3">
-        <v>486166000</v>
+        <v>481543000</v>
       </c>
       <c r="J66" s="3">
-        <v>440427000</v>
+        <v>436238000</v>
       </c>
       <c r="K66" s="3">
         <v>446232000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19390500</v>
+        <v>19206100</v>
       </c>
       <c r="E72" s="3">
-        <v>19785500</v>
+        <v>19597400</v>
       </c>
       <c r="F72" s="3">
-        <v>18516200</v>
+        <v>18340200</v>
       </c>
       <c r="G72" s="3">
-        <v>17291400</v>
+        <v>17127000</v>
       </c>
       <c r="H72" s="3">
-        <v>16402400</v>
+        <v>16246400</v>
       </c>
       <c r="I72" s="3">
-        <v>14614900</v>
+        <v>14475900</v>
       </c>
       <c r="J72" s="3">
-        <v>13375200</v>
+        <v>13248000</v>
       </c>
       <c r="K72" s="3">
         <v>12795800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44050500</v>
+        <v>43631600</v>
       </c>
       <c r="E76" s="3">
-        <v>43422600</v>
+        <v>43009700</v>
       </c>
       <c r="F76" s="3">
-        <v>41246800</v>
+        <v>40854600</v>
       </c>
       <c r="G76" s="3">
-        <v>39114800</v>
+        <v>38742800</v>
       </c>
       <c r="H76" s="3">
-        <v>35735000</v>
+        <v>35395100</v>
       </c>
       <c r="I76" s="3">
-        <v>32610900</v>
+        <v>32300800</v>
       </c>
       <c r="J76" s="3">
-        <v>31411600</v>
+        <v>31112900</v>
       </c>
       <c r="K76" s="3">
         <v>31306200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4561600</v>
+        <v>4497200</v>
       </c>
       <c r="E81" s="3">
-        <v>5444600</v>
+        <v>5367700</v>
       </c>
       <c r="F81" s="3">
-        <v>5373200</v>
+        <v>5297400</v>
       </c>
       <c r="G81" s="3">
-        <v>5007100</v>
+        <v>4936400</v>
       </c>
       <c r="H81" s="3">
-        <v>5388000</v>
+        <v>5312000</v>
       </c>
       <c r="I81" s="3">
-        <v>5081800</v>
+        <v>5010100</v>
       </c>
       <c r="J81" s="3">
-        <v>4535300</v>
+        <v>4471300</v>
       </c>
       <c r="K81" s="3">
         <v>4191900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>726200</v>
+        <v>715900</v>
       </c>
       <c r="E83" s="3">
-        <v>769900</v>
+        <v>759000</v>
       </c>
       <c r="F83" s="3">
-        <v>854000</v>
+        <v>842000</v>
       </c>
       <c r="G83" s="3">
-        <v>813000</v>
+        <v>801500</v>
       </c>
       <c r="H83" s="3">
-        <v>1124600</v>
+        <v>1108700</v>
       </c>
       <c r="I83" s="3">
-        <v>686500</v>
+        <v>676800</v>
       </c>
       <c r="J83" s="3">
-        <v>608400</v>
+        <v>599800</v>
       </c>
       <c r="K83" s="3">
         <v>601400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4781000</v>
+        <v>4713500</v>
       </c>
       <c r="E89" s="3">
-        <v>13305200</v>
+        <v>13117400</v>
       </c>
       <c r="F89" s="3">
-        <v>1909300</v>
+        <v>1882300</v>
       </c>
       <c r="G89" s="3">
-        <v>3699500</v>
+        <v>3647300</v>
       </c>
       <c r="H89" s="3">
-        <v>-364100</v>
+        <v>-359000</v>
       </c>
       <c r="I89" s="3">
-        <v>19093700</v>
+        <v>18824200</v>
       </c>
       <c r="J89" s="3">
-        <v>17215300</v>
+        <v>16972300</v>
       </c>
       <c r="K89" s="3">
         <v>10998100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-188400</v>
+        <v>-185800</v>
       </c>
       <c r="E91" s="3">
-        <v>-208600</v>
+        <v>-205700</v>
       </c>
       <c r="F91" s="3">
-        <v>-177700</v>
+        <v>-175200</v>
       </c>
       <c r="G91" s="3">
-        <v>-350600</v>
+        <v>-345700</v>
       </c>
       <c r="H91" s="3">
-        <v>-455600</v>
+        <v>-449200</v>
       </c>
       <c r="I91" s="3">
-        <v>-346600</v>
+        <v>-341700</v>
       </c>
       <c r="J91" s="3">
-        <v>-204600</v>
+        <v>-201700</v>
       </c>
       <c r="K91" s="3">
         <v>-178300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7247500</v>
+        <v>-7145200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1090300</v>
+        <v>-1074900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1142800</v>
+        <v>-1126600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4875900</v>
+        <v>-4807100</v>
       </c>
       <c r="H94" s="3">
-        <v>-12595200</v>
+        <v>-12417400</v>
       </c>
       <c r="I94" s="3">
-        <v>-9813000</v>
+        <v>-9674500</v>
       </c>
       <c r="J94" s="3">
-        <v>-5245400</v>
+        <v>-5171300</v>
       </c>
       <c r="K94" s="3">
         <v>-4421900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3349500</v>
+        <v>-3302200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3882500</v>
+        <v>-3827700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3256600</v>
+        <v>-3210700</v>
       </c>
       <c r="G96" s="3">
-        <v>-3635500</v>
+        <v>-3584200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2920800</v>
+        <v>-2879600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3928300</v>
+        <v>-3872800</v>
       </c>
       <c r="J96" s="3">
-        <v>-3383800</v>
+        <v>-3336100</v>
       </c>
       <c r="K96" s="3">
         <v>-2865400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2445000</v>
+        <v>-2410500</v>
       </c>
       <c r="E100" s="3">
-        <v>-7464900</v>
+        <v>-7359500</v>
       </c>
       <c r="F100" s="3">
-        <v>371500</v>
+        <v>366300</v>
       </c>
       <c r="G100" s="3">
-        <v>3077600</v>
+        <v>3034200</v>
       </c>
       <c r="H100" s="3">
-        <v>3710200</v>
+        <v>3657900</v>
       </c>
       <c r="I100" s="3">
-        <v>-650100</v>
+        <v>-640900</v>
       </c>
       <c r="J100" s="3">
-        <v>-13651800</v>
+        <v>-13459100</v>
       </c>
       <c r="K100" s="3">
         <v>-8889000</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>382900</v>
+        <v>377500</v>
       </c>
       <c r="E101" s="3">
-        <v>635300</v>
+        <v>626300</v>
       </c>
       <c r="F101" s="3">
-        <v>-203200</v>
+        <v>-200400</v>
       </c>
       <c r="G101" s="3">
-        <v>-390300</v>
+        <v>-384800</v>
       </c>
       <c r="H101" s="3">
-        <v>1852800</v>
+        <v>1826600</v>
       </c>
       <c r="I101" s="3">
-        <v>832500</v>
+        <v>820700</v>
       </c>
       <c r="J101" s="3">
-        <v>1127300</v>
+        <v>1111400</v>
       </c>
       <c r="K101" s="3">
         <v>-329700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4528600</v>
+        <v>-4464700</v>
       </c>
       <c r="E102" s="3">
-        <v>5385300</v>
+        <v>5309300</v>
       </c>
       <c r="F102" s="3">
-        <v>934800</v>
+        <v>921600</v>
       </c>
       <c r="G102" s="3">
-        <v>1510900</v>
+        <v>1489600</v>
       </c>
       <c r="H102" s="3">
-        <v>-7396300</v>
+        <v>-7291900</v>
       </c>
       <c r="I102" s="3">
-        <v>9463100</v>
+        <v>9329500</v>
       </c>
       <c r="J102" s="3">
-        <v>-554600</v>
+        <v>-546700</v>
       </c>
       <c r="K102" s="3">
         <v>-2642500</v>

--- a/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22042800</v>
+        <v>24022800</v>
       </c>
       <c r="E8" s="3">
-        <v>21610900</v>
+        <v>23552100</v>
       </c>
       <c r="F8" s="3">
-        <v>20722400</v>
+        <v>22583900</v>
       </c>
       <c r="G8" s="3">
-        <v>21113900</v>
+        <v>23010500</v>
       </c>
       <c r="H8" s="3">
-        <v>21427700</v>
+        <v>23352500</v>
       </c>
       <c r="I8" s="3">
-        <v>21396500</v>
+        <v>23318500</v>
       </c>
       <c r="J8" s="3">
-        <v>21901500</v>
+        <v>23868800</v>
       </c>
       <c r="K8" s="3">
         <v>26087600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-699300</v>
+        <v>-762100</v>
       </c>
       <c r="E15" s="3">
-        <v>-757700</v>
+        <v>-825800</v>
       </c>
       <c r="F15" s="3">
-        <v>-1249400</v>
+        <v>-1361600</v>
       </c>
       <c r="G15" s="3">
-        <v>-814800</v>
+        <v>-888000</v>
       </c>
       <c r="H15" s="3">
-        <v>-1108700</v>
+        <v>-1208300</v>
       </c>
       <c r="I15" s="3">
-        <v>-676800</v>
+        <v>-737600</v>
       </c>
       <c r="J15" s="3">
-        <v>-599800</v>
+        <v>-653700</v>
       </c>
       <c r="K15" s="3">
         <v>-437900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11351800</v>
+        <v>12371500</v>
       </c>
       <c r="E17" s="3">
-        <v>11130900</v>
+        <v>12130700</v>
       </c>
       <c r="F17" s="3">
-        <v>10993500</v>
+        <v>11981000</v>
       </c>
       <c r="G17" s="3">
-        <v>11809000</v>
+        <v>12869700</v>
       </c>
       <c r="H17" s="3">
-        <v>12461200</v>
+        <v>13580500</v>
       </c>
       <c r="I17" s="3">
-        <v>12842700</v>
+        <v>13996300</v>
       </c>
       <c r="J17" s="3">
-        <v>13956700</v>
+        <v>15210400</v>
       </c>
       <c r="K17" s="3">
         <v>18100000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10691000</v>
+        <v>11651300</v>
       </c>
       <c r="E18" s="3">
-        <v>10480000</v>
+        <v>11421400</v>
       </c>
       <c r="F18" s="3">
-        <v>9728900</v>
+        <v>10602800</v>
       </c>
       <c r="G18" s="3">
-        <v>9304900</v>
+        <v>10140800</v>
       </c>
       <c r="H18" s="3">
-        <v>8966500</v>
+        <v>9772000</v>
       </c>
       <c r="I18" s="3">
-        <v>8553800</v>
+        <v>9322200</v>
       </c>
       <c r="J18" s="3">
-        <v>7944700</v>
+        <v>8658400</v>
       </c>
       <c r="K18" s="3">
         <v>7987700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4222500</v>
+        <v>-4601800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2696500</v>
+        <v>-2938700</v>
       </c>
       <c r="F20" s="3">
-        <v>-2088700</v>
+        <v>-2276300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2242600</v>
+        <v>-2444100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1392000</v>
+        <v>-1517100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1427900</v>
+        <v>-1556100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1461000</v>
+        <v>-1592300</v>
       </c>
       <c r="K20" s="3">
         <v>-1751800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7182800</v>
+        <v>7825700</v>
       </c>
       <c r="E21" s="3">
-        <v>8540800</v>
+        <v>9305700</v>
       </c>
       <c r="F21" s="3">
-        <v>8480300</v>
+        <v>9239400</v>
       </c>
       <c r="G21" s="3">
-        <v>7862000</v>
+        <v>8565700</v>
       </c>
       <c r="H21" s="3">
-        <v>8680700</v>
+        <v>9457000</v>
       </c>
       <c r="I21" s="3">
-        <v>7801200</v>
+        <v>8499900</v>
       </c>
       <c r="J21" s="3">
-        <v>7082200</v>
+        <v>7716500</v>
       </c>
       <c r="K21" s="3">
         <v>6838000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6468500</v>
+        <v>7049500</v>
       </c>
       <c r="E23" s="3">
-        <v>7783500</v>
+        <v>8482700</v>
       </c>
       <c r="F23" s="3">
-        <v>7640200</v>
+        <v>8326500</v>
       </c>
       <c r="G23" s="3">
-        <v>7062300</v>
+        <v>7696700</v>
       </c>
       <c r="H23" s="3">
-        <v>7574500</v>
+        <v>8254900</v>
       </c>
       <c r="I23" s="3">
-        <v>7126000</v>
+        <v>7766100</v>
       </c>
       <c r="J23" s="3">
-        <v>6483700</v>
+        <v>7066100</v>
       </c>
       <c r="K23" s="3">
         <v>6235900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1963300</v>
+        <v>2139700</v>
       </c>
       <c r="E24" s="3">
-        <v>2409800</v>
+        <v>2626300</v>
       </c>
       <c r="F24" s="3">
-        <v>2334200</v>
+        <v>2543900</v>
       </c>
       <c r="G24" s="3">
-        <v>2112600</v>
+        <v>2302400</v>
       </c>
       <c r="H24" s="3">
-        <v>2221400</v>
+        <v>2420900</v>
       </c>
       <c r="I24" s="3">
-        <v>2066800</v>
+        <v>2252500</v>
       </c>
       <c r="J24" s="3">
-        <v>1955300</v>
+        <v>2131000</v>
       </c>
       <c r="K24" s="3">
         <v>1989500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4505200</v>
+        <v>4909800</v>
       </c>
       <c r="E26" s="3">
-        <v>5373700</v>
+        <v>5856400</v>
       </c>
       <c r="F26" s="3">
-        <v>5306000</v>
+        <v>5782600</v>
       </c>
       <c r="G26" s="3">
-        <v>4949700</v>
+        <v>5394300</v>
       </c>
       <c r="H26" s="3">
-        <v>5353100</v>
+        <v>5834000</v>
       </c>
       <c r="I26" s="3">
-        <v>5059200</v>
+        <v>5513600</v>
       </c>
       <c r="J26" s="3">
-        <v>4528400</v>
+        <v>4935200</v>
       </c>
       <c r="K26" s="3">
         <v>4246400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4497200</v>
+        <v>4901200</v>
       </c>
       <c r="E27" s="3">
-        <v>5367700</v>
+        <v>5849900</v>
       </c>
       <c r="F27" s="3">
-        <v>5297400</v>
+        <v>5773200</v>
       </c>
       <c r="G27" s="3">
-        <v>4936400</v>
+        <v>5379900</v>
       </c>
       <c r="H27" s="3">
-        <v>5312000</v>
+        <v>5789100</v>
       </c>
       <c r="I27" s="3">
-        <v>5010100</v>
+        <v>5460100</v>
       </c>
       <c r="J27" s="3">
-        <v>4471300</v>
+        <v>4873000</v>
       </c>
       <c r="K27" s="3">
         <v>4191900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4222500</v>
+        <v>4601800</v>
       </c>
       <c r="E32" s="3">
-        <v>2696500</v>
+        <v>2938700</v>
       </c>
       <c r="F32" s="3">
-        <v>2088700</v>
+        <v>2276300</v>
       </c>
       <c r="G32" s="3">
-        <v>2242600</v>
+        <v>2444100</v>
       </c>
       <c r="H32" s="3">
-        <v>1392000</v>
+        <v>1517100</v>
       </c>
       <c r="I32" s="3">
-        <v>1427900</v>
+        <v>1556100</v>
       </c>
       <c r="J32" s="3">
-        <v>1461000</v>
+        <v>1592300</v>
       </c>
       <c r="K32" s="3">
         <v>1751800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4497200</v>
+        <v>4901200</v>
       </c>
       <c r="E33" s="3">
-        <v>5367700</v>
+        <v>5849900</v>
       </c>
       <c r="F33" s="3">
-        <v>5297400</v>
+        <v>5773200</v>
       </c>
       <c r="G33" s="3">
-        <v>4936400</v>
+        <v>5379900</v>
       </c>
       <c r="H33" s="3">
-        <v>5312000</v>
+        <v>5789100</v>
       </c>
       <c r="I33" s="3">
-        <v>5010100</v>
+        <v>5460100</v>
       </c>
       <c r="J33" s="3">
-        <v>4471300</v>
+        <v>4873000</v>
       </c>
       <c r="K33" s="3">
         <v>4191900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4497200</v>
+        <v>4901200</v>
       </c>
       <c r="E35" s="3">
-        <v>5367700</v>
+        <v>5849900</v>
       </c>
       <c r="F35" s="3">
-        <v>5297400</v>
+        <v>5773200</v>
       </c>
       <c r="G35" s="3">
-        <v>4936400</v>
+        <v>5379900</v>
       </c>
       <c r="H35" s="3">
-        <v>5312000</v>
+        <v>5789100</v>
       </c>
       <c r="I35" s="3">
-        <v>5010100</v>
+        <v>5460100</v>
       </c>
       <c r="J35" s="3">
-        <v>4471300</v>
+        <v>4873000</v>
       </c>
       <c r="K35" s="3">
         <v>4191900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13714000</v>
+        <v>14876300</v>
       </c>
       <c r="E41" s="3">
-        <v>18590800</v>
+        <v>20166500</v>
       </c>
       <c r="F41" s="3">
-        <v>26056100</v>
+        <v>28264500</v>
       </c>
       <c r="G41" s="3">
-        <v>13224000</v>
+        <v>14344900</v>
       </c>
       <c r="H41" s="3">
-        <v>11166200</v>
+        <v>12112600</v>
       </c>
       <c r="I41" s="3">
-        <v>24628900</v>
+        <v>26716400</v>
       </c>
       <c r="J41" s="3">
-        <v>25895400</v>
+        <v>28090300</v>
       </c>
       <c r="K41" s="3">
         <v>16096300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31861500</v>
+        <v>34562000</v>
       </c>
       <c r="E42" s="3">
-        <v>34611200</v>
+        <v>37544800</v>
       </c>
       <c r="F42" s="3">
-        <v>36822300</v>
+        <v>39943300</v>
       </c>
       <c r="G42" s="3">
-        <v>41271200</v>
+        <v>44769300</v>
       </c>
       <c r="H42" s="3">
-        <v>56353000</v>
+        <v>61129400</v>
       </c>
       <c r="I42" s="3">
-        <v>60172000</v>
+        <v>65272100</v>
       </c>
       <c r="J42" s="3">
-        <v>84450200</v>
+        <v>91608100</v>
       </c>
       <c r="K42" s="3">
         <v>35512300</v>
@@ -1850,19 +1850,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86000</v>
+        <v>93300</v>
       </c>
       <c r="E47" s="3">
-        <v>76700</v>
+        <v>83200</v>
       </c>
       <c r="F47" s="3">
-        <v>40000</v>
+        <v>43400</v>
       </c>
       <c r="G47" s="3">
-        <v>484000</v>
+        <v>525000</v>
       </c>
       <c r="H47" s="3">
-        <v>503900</v>
+        <v>546700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>769900</v>
+        <v>835200</v>
       </c>
       <c r="E48" s="3">
-        <v>885900</v>
+        <v>961000</v>
       </c>
       <c r="F48" s="3">
-        <v>991200</v>
+        <v>1075200</v>
       </c>
       <c r="G48" s="3">
-        <v>1157900</v>
+        <v>1256000</v>
       </c>
       <c r="H48" s="3">
-        <v>1061200</v>
+        <v>1151200</v>
       </c>
       <c r="I48" s="3">
-        <v>967900</v>
+        <v>1049900</v>
       </c>
       <c r="J48" s="3">
-        <v>1565200</v>
+        <v>1697800</v>
       </c>
       <c r="K48" s="3">
         <v>804400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7967900</v>
+        <v>8643200</v>
       </c>
       <c r="E49" s="3">
-        <v>7841200</v>
+        <v>8505800</v>
       </c>
       <c r="F49" s="3">
-        <v>7767200</v>
+        <v>8425600</v>
       </c>
       <c r="G49" s="3">
-        <v>7679200</v>
+        <v>8330100</v>
       </c>
       <c r="H49" s="3">
-        <v>7715200</v>
+        <v>8369200</v>
       </c>
       <c r="I49" s="3">
-        <v>8403200</v>
+        <v>9115400</v>
       </c>
       <c r="J49" s="3">
-        <v>16453000</v>
+        <v>17847600</v>
       </c>
       <c r="K49" s="3">
         <v>8584800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1365200</v>
+        <v>1480900</v>
       </c>
       <c r="E52" s="3">
-        <v>786600</v>
+        <v>853300</v>
       </c>
       <c r="F52" s="3">
-        <v>741300</v>
+        <v>804100</v>
       </c>
       <c r="G52" s="3">
-        <v>1034600</v>
+        <v>1122300</v>
       </c>
       <c r="H52" s="3">
-        <v>917900</v>
+        <v>995700</v>
       </c>
       <c r="I52" s="3">
-        <v>931200</v>
+        <v>1010200</v>
       </c>
       <c r="J52" s="3">
-        <v>1181900</v>
+        <v>1282100</v>
       </c>
       <c r="K52" s="3">
         <v>1539500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>604357000</v>
+        <v>655581000</v>
       </c>
       <c r="E54" s="3">
-        <v>586336000</v>
+        <v>636033000</v>
       </c>
       <c r="F54" s="3">
-        <v>567860000</v>
+        <v>615991000</v>
       </c>
       <c r="G54" s="3">
-        <v>559412000</v>
+        <v>606827000</v>
       </c>
       <c r="H54" s="3">
-        <v>541383000</v>
+        <v>587270000</v>
       </c>
       <c r="I54" s="3">
-        <v>513843000</v>
+        <v>557396000</v>
       </c>
       <c r="J54" s="3">
-        <v>467351000</v>
+        <v>506963000</v>
       </c>
       <c r="K54" s="3">
         <v>477538000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>769300</v>
+        <v>834500</v>
       </c>
       <c r="E57" s="3">
-        <v>939900</v>
+        <v>1019600</v>
       </c>
       <c r="F57" s="3">
-        <v>739300</v>
+        <v>801900</v>
       </c>
       <c r="G57" s="3">
-        <v>749300</v>
+        <v>812800</v>
       </c>
       <c r="H57" s="3">
-        <v>850600</v>
+        <v>922700</v>
       </c>
       <c r="I57" s="3">
-        <v>686600</v>
+        <v>744800</v>
       </c>
       <c r="J57" s="3">
-        <v>679300</v>
+        <v>736800</v>
       </c>
       <c r="K57" s="3">
         <v>648800</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27415300</v>
+        <v>29738900</v>
       </c>
       <c r="E58" s="3">
-        <v>20774600</v>
+        <v>22535400</v>
       </c>
       <c r="F58" s="3">
-        <v>24724200</v>
+        <v>26819800</v>
       </c>
       <c r="G58" s="3">
-        <v>17600200</v>
+        <v>19092000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2195,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>32924000</v>
+        <v>35714600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1859800</v>
+        <v>2017400</v>
       </c>
       <c r="E59" s="3">
-        <v>2175800</v>
+        <v>2360200</v>
       </c>
       <c r="F59" s="3">
-        <v>2023100</v>
+        <v>2194600</v>
       </c>
       <c r="G59" s="3">
-        <v>1975800</v>
+        <v>2143300</v>
       </c>
       <c r="H59" s="3">
-        <v>2109800</v>
+        <v>2288600</v>
       </c>
       <c r="I59" s="3">
-        <v>2385800</v>
+        <v>2588000</v>
       </c>
       <c r="J59" s="3">
-        <v>2576400</v>
+        <v>2794800</v>
       </c>
       <c r="K59" s="3">
         <v>2367300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>118285000</v>
+        <v>128311000</v>
       </c>
       <c r="E61" s="3">
-        <v>108131000</v>
+        <v>117296000</v>
       </c>
       <c r="F61" s="3">
-        <v>101636000</v>
+        <v>110250000</v>
       </c>
       <c r="G61" s="3">
-        <v>109092000</v>
+        <v>118339000</v>
       </c>
       <c r="H61" s="3">
-        <v>99344100</v>
+        <v>107764000</v>
       </c>
       <c r="I61" s="3">
-        <v>87516600</v>
+        <v>94934400</v>
       </c>
       <c r="J61" s="3">
-        <v>81484500</v>
+        <v>88391000</v>
       </c>
       <c r="K61" s="3">
         <v>6747400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2141800</v>
+        <v>2323300</v>
       </c>
       <c r="E62" s="3">
-        <v>1313900</v>
+        <v>1425200</v>
       </c>
       <c r="F62" s="3">
-        <v>1127900</v>
+        <v>1223500</v>
       </c>
       <c r="G62" s="3">
-        <v>1158600</v>
+        <v>1256700</v>
       </c>
       <c r="H62" s="3">
-        <v>1157200</v>
+        <v>1255300</v>
       </c>
       <c r="I62" s="3">
-        <v>1325200</v>
+        <v>1437500</v>
       </c>
       <c r="J62" s="3">
-        <v>1228500</v>
+        <v>1332700</v>
       </c>
       <c r="K62" s="3">
         <v>1839500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>560725000</v>
+        <v>608252000</v>
       </c>
       <c r="E66" s="3">
-        <v>543326000</v>
+        <v>589378000</v>
       </c>
       <c r="F66" s="3">
-        <v>527005000</v>
+        <v>571674000</v>
       </c>
       <c r="G66" s="3">
-        <v>520669000</v>
+        <v>564800000</v>
       </c>
       <c r="H66" s="3">
-        <v>505988000</v>
+        <v>548875000</v>
       </c>
       <c r="I66" s="3">
-        <v>481543000</v>
+        <v>522357000</v>
       </c>
       <c r="J66" s="3">
-        <v>436238000</v>
+        <v>473213000</v>
       </c>
       <c r="K66" s="3">
         <v>446232000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19206100</v>
+        <v>20834000</v>
       </c>
       <c r="E72" s="3">
-        <v>19597400</v>
+        <v>21258400</v>
       </c>
       <c r="F72" s="3">
-        <v>18340200</v>
+        <v>19894700</v>
       </c>
       <c r="G72" s="3">
-        <v>17127000</v>
+        <v>18578600</v>
       </c>
       <c r="H72" s="3">
-        <v>16246400</v>
+        <v>17623400</v>
       </c>
       <c r="I72" s="3">
-        <v>14475900</v>
+        <v>15702800</v>
       </c>
       <c r="J72" s="3">
-        <v>13248000</v>
+        <v>14370900</v>
       </c>
       <c r="K72" s="3">
         <v>12795800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43631600</v>
+        <v>47329800</v>
       </c>
       <c r="E76" s="3">
-        <v>43009700</v>
+        <v>46655100</v>
       </c>
       <c r="F76" s="3">
-        <v>40854600</v>
+        <v>44317400</v>
       </c>
       <c r="G76" s="3">
-        <v>38742800</v>
+        <v>42026600</v>
       </c>
       <c r="H76" s="3">
-        <v>35395100</v>
+        <v>38395200</v>
       </c>
       <c r="I76" s="3">
-        <v>32300800</v>
+        <v>35038500</v>
       </c>
       <c r="J76" s="3">
-        <v>31112900</v>
+        <v>33750000</v>
       </c>
       <c r="K76" s="3">
         <v>31306200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4497200</v>
+        <v>4901200</v>
       </c>
       <c r="E81" s="3">
-        <v>5367700</v>
+        <v>5849900</v>
       </c>
       <c r="F81" s="3">
-        <v>5297400</v>
+        <v>5773200</v>
       </c>
       <c r="G81" s="3">
-        <v>4936400</v>
+        <v>5379900</v>
       </c>
       <c r="H81" s="3">
-        <v>5312000</v>
+        <v>5789100</v>
       </c>
       <c r="I81" s="3">
-        <v>5010100</v>
+        <v>5460100</v>
       </c>
       <c r="J81" s="3">
-        <v>4471300</v>
+        <v>4873000</v>
       </c>
       <c r="K81" s="3">
         <v>4191900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>715900</v>
+        <v>780200</v>
       </c>
       <c r="E83" s="3">
-        <v>759000</v>
+        <v>827200</v>
       </c>
       <c r="F83" s="3">
-        <v>842000</v>
+        <v>917600</v>
       </c>
       <c r="G83" s="3">
-        <v>801500</v>
+        <v>873500</v>
       </c>
       <c r="H83" s="3">
-        <v>1108700</v>
+        <v>1208300</v>
       </c>
       <c r="I83" s="3">
-        <v>676800</v>
+        <v>737600</v>
       </c>
       <c r="J83" s="3">
-        <v>599800</v>
+        <v>653700</v>
       </c>
       <c r="K83" s="3">
         <v>601400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4713500</v>
+        <v>5136900</v>
       </c>
       <c r="E89" s="3">
-        <v>13117400</v>
+        <v>14295700</v>
       </c>
       <c r="F89" s="3">
-        <v>1882300</v>
+        <v>2051400</v>
       </c>
       <c r="G89" s="3">
-        <v>3647300</v>
+        <v>3974900</v>
       </c>
       <c r="H89" s="3">
-        <v>-359000</v>
+        <v>-391200</v>
       </c>
       <c r="I89" s="3">
-        <v>18824200</v>
+        <v>20515100</v>
       </c>
       <c r="J89" s="3">
-        <v>16972300</v>
+        <v>18496900</v>
       </c>
       <c r="K89" s="3">
         <v>10998100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-185800</v>
+        <v>-202500</v>
       </c>
       <c r="E91" s="3">
-        <v>-205700</v>
+        <v>-224200</v>
       </c>
       <c r="F91" s="3">
-        <v>-175200</v>
+        <v>-190900</v>
       </c>
       <c r="G91" s="3">
-        <v>-345700</v>
+        <v>-376700</v>
       </c>
       <c r="H91" s="3">
-        <v>-449200</v>
+        <v>-489500</v>
       </c>
       <c r="I91" s="3">
-        <v>-341700</v>
+        <v>-372400</v>
       </c>
       <c r="J91" s="3">
-        <v>-201700</v>
+        <v>-219800</v>
       </c>
       <c r="K91" s="3">
         <v>-178300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7145200</v>
+        <v>-7787100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1074900</v>
+        <v>-1171400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1126600</v>
+        <v>-1227800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4807100</v>
+        <v>-5238900</v>
       </c>
       <c r="H94" s="3">
-        <v>-12417400</v>
+        <v>-13532800</v>
       </c>
       <c r="I94" s="3">
-        <v>-9674500</v>
+        <v>-10543500</v>
       </c>
       <c r="J94" s="3">
-        <v>-5171300</v>
+        <v>-5635800</v>
       </c>
       <c r="K94" s="3">
         <v>-4421900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3302200</v>
+        <v>-3598900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3827700</v>
+        <v>-4171600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3210700</v>
+        <v>-3499100</v>
       </c>
       <c r="G96" s="3">
-        <v>-3584200</v>
+        <v>-3906200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2879600</v>
+        <v>-3138300</v>
       </c>
       <c r="I96" s="3">
-        <v>-3872800</v>
+        <v>-4220700</v>
       </c>
       <c r="J96" s="3">
-        <v>-3336100</v>
+        <v>-3635700</v>
       </c>
       <c r="K96" s="3">
         <v>-2865400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2410500</v>
+        <v>-2627000</v>
       </c>
       <c r="E100" s="3">
-        <v>-7359500</v>
+        <v>-8020600</v>
       </c>
       <c r="F100" s="3">
-        <v>366300</v>
+        <v>399200</v>
       </c>
       <c r="G100" s="3">
-        <v>3034200</v>
+        <v>3306700</v>
       </c>
       <c r="H100" s="3">
-        <v>3657900</v>
+        <v>3986500</v>
       </c>
       <c r="I100" s="3">
-        <v>-640900</v>
+        <v>-698500</v>
       </c>
       <c r="J100" s="3">
-        <v>-13459100</v>
+        <v>-14668100</v>
       </c>
       <c r="K100" s="3">
         <v>-8889000</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>377500</v>
+        <v>411400</v>
       </c>
       <c r="E101" s="3">
-        <v>626300</v>
+        <v>682600</v>
       </c>
       <c r="F101" s="3">
-        <v>-200400</v>
+        <v>-218400</v>
       </c>
       <c r="G101" s="3">
-        <v>-384800</v>
+        <v>-419400</v>
       </c>
       <c r="H101" s="3">
-        <v>1826600</v>
+        <v>1990700</v>
       </c>
       <c r="I101" s="3">
-        <v>820700</v>
+        <v>894500</v>
       </c>
       <c r="J101" s="3">
-        <v>1111400</v>
+        <v>1211200</v>
       </c>
       <c r="K101" s="3">
         <v>-329700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4464700</v>
+        <v>-4865700</v>
       </c>
       <c r="E102" s="3">
-        <v>5309300</v>
+        <v>5786200</v>
       </c>
       <c r="F102" s="3">
-        <v>921600</v>
+        <v>1004400</v>
       </c>
       <c r="G102" s="3">
-        <v>1489600</v>
+        <v>1623400</v>
       </c>
       <c r="H102" s="3">
-        <v>-7291900</v>
+        <v>-7946900</v>
       </c>
       <c r="I102" s="3">
-        <v>9329500</v>
+        <v>10167500</v>
       </c>
       <c r="J102" s="3">
-        <v>-546700</v>
+        <v>-595800</v>
       </c>
       <c r="K102" s="3">
         <v>-2642500</v>

--- a/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>WBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41912</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24022800</v>
+        <v>19976900</v>
       </c>
       <c r="E8" s="3">
-        <v>23552100</v>
+        <v>24537800</v>
       </c>
       <c r="F8" s="3">
-        <v>22583900</v>
+        <v>24056900</v>
       </c>
       <c r="G8" s="3">
-        <v>23010500</v>
+        <v>23068000</v>
       </c>
       <c r="H8" s="3">
-        <v>23352500</v>
+        <v>23503700</v>
       </c>
       <c r="I8" s="3">
-        <v>23318500</v>
+        <v>23853100</v>
       </c>
       <c r="J8" s="3">
+        <v>23818400</v>
+      </c>
+      <c r="K8" s="3">
         <v>23868800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26087600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27643900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-762100</v>
+        <v>-1700300</v>
       </c>
       <c r="E15" s="3">
-        <v>-825800</v>
+        <v>-778500</v>
       </c>
       <c r="F15" s="3">
-        <v>-1361600</v>
+        <v>-843500</v>
       </c>
       <c r="G15" s="3">
-        <v>-888000</v>
+        <v>-1390800</v>
       </c>
       <c r="H15" s="3">
-        <v>-1208300</v>
+        <v>-907000</v>
       </c>
       <c r="I15" s="3">
-        <v>-737600</v>
+        <v>-1234200</v>
       </c>
       <c r="J15" s="3">
+        <v>-753400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-653700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-437900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-520300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12371500</v>
+        <v>8231700</v>
       </c>
       <c r="E17" s="3">
-        <v>12130700</v>
+        <v>12636700</v>
       </c>
       <c r="F17" s="3">
-        <v>11981000</v>
+        <v>12390800</v>
       </c>
       <c r="G17" s="3">
-        <v>12869700</v>
+        <v>12237900</v>
       </c>
       <c r="H17" s="3">
-        <v>13580500</v>
+        <v>13145600</v>
       </c>
       <c r="I17" s="3">
-        <v>13996300</v>
+        <v>13871600</v>
       </c>
       <c r="J17" s="3">
+        <v>14296300</v>
+      </c>
+      <c r="K17" s="3">
         <v>15210400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18100000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19660100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11651300</v>
+        <v>11745200</v>
       </c>
       <c r="E18" s="3">
-        <v>11421400</v>
+        <v>11901100</v>
       </c>
       <c r="F18" s="3">
-        <v>10602800</v>
+        <v>11666200</v>
       </c>
       <c r="G18" s="3">
-        <v>10140800</v>
+        <v>10830100</v>
       </c>
       <c r="H18" s="3">
-        <v>9772000</v>
+        <v>10358100</v>
       </c>
       <c r="I18" s="3">
-        <v>9322200</v>
+        <v>9981400</v>
       </c>
       <c r="J18" s="3">
+        <v>9522000</v>
+      </c>
+      <c r="K18" s="3">
         <v>8658400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7987700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7983800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4601800</v>
+        <v>-8594300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2938700</v>
+        <v>-4700500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2276300</v>
+        <v>-3001700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2444100</v>
+        <v>-2325100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1517100</v>
+        <v>-2496500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1556100</v>
+        <v>-1549600</v>
       </c>
       <c r="J20" s="3">
+        <v>-1589500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1592300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1751800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1806000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7825700</v>
+        <v>4971200</v>
       </c>
       <c r="E21" s="3">
-        <v>9305700</v>
+        <v>7994900</v>
       </c>
       <c r="F21" s="3">
-        <v>9239400</v>
+        <v>9506600</v>
       </c>
       <c r="G21" s="3">
-        <v>8565700</v>
+        <v>9439100</v>
       </c>
       <c r="H21" s="3">
-        <v>9457000</v>
+        <v>8750900</v>
       </c>
       <c r="I21" s="3">
-        <v>8499900</v>
+        <v>9661900</v>
       </c>
       <c r="J21" s="3">
+        <v>8683400</v>
+      </c>
+      <c r="K21" s="3">
         <v>7716500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6838000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6700600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7049500</v>
+        <v>3150900</v>
       </c>
       <c r="E23" s="3">
-        <v>8482700</v>
+        <v>7200600</v>
       </c>
       <c r="F23" s="3">
-        <v>8326500</v>
+        <v>8664500</v>
       </c>
       <c r="G23" s="3">
-        <v>7696700</v>
+        <v>8505000</v>
       </c>
       <c r="H23" s="3">
-        <v>8254900</v>
+        <v>7861700</v>
       </c>
       <c r="I23" s="3">
-        <v>7766100</v>
+        <v>8431900</v>
       </c>
       <c r="J23" s="3">
+        <v>7932600</v>
+      </c>
+      <c r="K23" s="3">
         <v>7066100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6235900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6177800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2139700</v>
+        <v>1458000</v>
       </c>
       <c r="E24" s="3">
-        <v>2626300</v>
+        <v>2185500</v>
       </c>
       <c r="F24" s="3">
-        <v>2543900</v>
+        <v>2682600</v>
       </c>
       <c r="G24" s="3">
-        <v>2302400</v>
+        <v>2598400</v>
       </c>
       <c r="H24" s="3">
-        <v>2420900</v>
+        <v>2351700</v>
       </c>
       <c r="I24" s="3">
-        <v>2252500</v>
+        <v>2472800</v>
       </c>
       <c r="J24" s="3">
+        <v>2300700</v>
+      </c>
+      <c r="K24" s="3">
         <v>2131000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1989500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1055700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4909800</v>
+        <v>1692900</v>
       </c>
       <c r="E26" s="3">
-        <v>5856400</v>
+        <v>5015100</v>
       </c>
       <c r="F26" s="3">
-        <v>5782600</v>
+        <v>5981900</v>
       </c>
       <c r="G26" s="3">
-        <v>5394300</v>
+        <v>5906600</v>
       </c>
       <c r="H26" s="3">
-        <v>5834000</v>
+        <v>5510000</v>
       </c>
       <c r="I26" s="3">
-        <v>5513600</v>
+        <v>5959000</v>
       </c>
       <c r="J26" s="3">
+        <v>5631800</v>
+      </c>
+      <c r="K26" s="3">
         <v>4935200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4246400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5122000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4901200</v>
+        <v>1689900</v>
       </c>
       <c r="E27" s="3">
-        <v>5849900</v>
+        <v>5006200</v>
       </c>
       <c r="F27" s="3">
-        <v>5773200</v>
+        <v>5975300</v>
       </c>
       <c r="G27" s="3">
-        <v>5379900</v>
+        <v>5897000</v>
       </c>
       <c r="H27" s="3">
-        <v>5789100</v>
+        <v>5495200</v>
       </c>
       <c r="I27" s="3">
-        <v>5460100</v>
+        <v>5913200</v>
       </c>
       <c r="J27" s="3">
+        <v>5577200</v>
+      </c>
+      <c r="K27" s="3">
         <v>4873000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4191900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5066900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4601800</v>
+        <v>8594300</v>
       </c>
       <c r="E32" s="3">
-        <v>2938700</v>
+        <v>4700500</v>
       </c>
       <c r="F32" s="3">
-        <v>2276300</v>
+        <v>3001700</v>
       </c>
       <c r="G32" s="3">
-        <v>2444100</v>
+        <v>2325100</v>
       </c>
       <c r="H32" s="3">
-        <v>1517100</v>
+        <v>2496500</v>
       </c>
       <c r="I32" s="3">
-        <v>1556100</v>
+        <v>1549600</v>
       </c>
       <c r="J32" s="3">
+        <v>1589500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1592300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1751800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1806000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4901200</v>
+        <v>1689900</v>
       </c>
       <c r="E33" s="3">
-        <v>5849900</v>
+        <v>5006200</v>
       </c>
       <c r="F33" s="3">
-        <v>5773200</v>
+        <v>5975300</v>
       </c>
       <c r="G33" s="3">
-        <v>5379900</v>
+        <v>5897000</v>
       </c>
       <c r="H33" s="3">
-        <v>5789100</v>
+        <v>5495200</v>
       </c>
       <c r="I33" s="3">
-        <v>5460100</v>
+        <v>5913200</v>
       </c>
       <c r="J33" s="3">
+        <v>5577200</v>
+      </c>
+      <c r="K33" s="3">
         <v>4873000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4191900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5066900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4901200</v>
+        <v>1689900</v>
       </c>
       <c r="E35" s="3">
-        <v>5849900</v>
+        <v>5006200</v>
       </c>
       <c r="F35" s="3">
-        <v>5773200</v>
+        <v>5975300</v>
       </c>
       <c r="G35" s="3">
-        <v>5379900</v>
+        <v>5897000</v>
       </c>
       <c r="H35" s="3">
-        <v>5789100</v>
+        <v>5495200</v>
       </c>
       <c r="I35" s="3">
-        <v>5460100</v>
+        <v>5913200</v>
       </c>
       <c r="J35" s="3">
+        <v>5577200</v>
+      </c>
+      <c r="K35" s="3">
         <v>4873000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4191900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5066900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41912</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14876300</v>
+        <v>22474100</v>
       </c>
       <c r="E41" s="3">
-        <v>20166500</v>
+        <v>15195200</v>
       </c>
       <c r="F41" s="3">
-        <v>28264500</v>
+        <v>20598800</v>
       </c>
       <c r="G41" s="3">
-        <v>14344900</v>
+        <v>28870400</v>
       </c>
       <c r="H41" s="3">
-        <v>12112600</v>
+        <v>14652300</v>
       </c>
       <c r="I41" s="3">
-        <v>26716400</v>
+        <v>12372300</v>
       </c>
       <c r="J41" s="3">
+        <v>27289100</v>
+      </c>
+      <c r="K41" s="3">
         <v>28090300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16096300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18001400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34562000</v>
+        <v>39902100</v>
       </c>
       <c r="E42" s="3">
-        <v>37544800</v>
+        <v>35302900</v>
       </c>
       <c r="F42" s="3">
-        <v>39943300</v>
+        <v>38349600</v>
       </c>
       <c r="G42" s="3">
-        <v>44769300</v>
+        <v>40799500</v>
       </c>
       <c r="H42" s="3">
-        <v>61129400</v>
+        <v>45728900</v>
       </c>
       <c r="I42" s="3">
-        <v>65272100</v>
+        <v>62439800</v>
       </c>
       <c r="J42" s="3">
+        <v>66671200</v>
+      </c>
+      <c r="K42" s="3">
         <v>91608100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35512300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>41083500</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,29 +1944,32 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>93300</v>
+        <v>45100</v>
       </c>
       <c r="E47" s="3">
-        <v>83200</v>
+        <v>95300</v>
       </c>
       <c r="F47" s="3">
-        <v>43400</v>
+        <v>84900</v>
       </c>
       <c r="G47" s="3">
-        <v>525000</v>
+        <v>44300</v>
       </c>
       <c r="H47" s="3">
-        <v>546700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>536200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>558400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>835200</v>
+        <v>2887900</v>
       </c>
       <c r="E48" s="3">
-        <v>961000</v>
+        <v>853100</v>
       </c>
       <c r="F48" s="3">
-        <v>1075200</v>
+        <v>981600</v>
       </c>
       <c r="G48" s="3">
-        <v>1256000</v>
+        <v>1098300</v>
       </c>
       <c r="H48" s="3">
-        <v>1151200</v>
+        <v>1282900</v>
       </c>
       <c r="I48" s="3">
-        <v>1049900</v>
+        <v>1175900</v>
       </c>
       <c r="J48" s="3">
+        <v>1072400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1697800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>804400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>840200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8643200</v>
+        <v>8491700</v>
       </c>
       <c r="E49" s="3">
-        <v>8505800</v>
+        <v>8828500</v>
       </c>
       <c r="F49" s="3">
-        <v>8425600</v>
+        <v>8688200</v>
       </c>
       <c r="G49" s="3">
-        <v>8330100</v>
+        <v>8606200</v>
       </c>
       <c r="H49" s="3">
-        <v>8369200</v>
+        <v>8508700</v>
       </c>
       <c r="I49" s="3">
-        <v>9115400</v>
+        <v>8548600</v>
       </c>
       <c r="J49" s="3">
+        <v>9310800</v>
+      </c>
+      <c r="K49" s="3">
         <v>17847600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8584800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8546800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1480900</v>
+        <v>2263100</v>
       </c>
       <c r="E52" s="3">
-        <v>853300</v>
+        <v>1512700</v>
       </c>
       <c r="F52" s="3">
-        <v>804100</v>
+        <v>871500</v>
       </c>
       <c r="G52" s="3">
-        <v>1122300</v>
+        <v>821300</v>
       </c>
       <c r="H52" s="3">
-        <v>995700</v>
+        <v>1146300</v>
       </c>
       <c r="I52" s="3">
-        <v>1010200</v>
+        <v>1017100</v>
       </c>
       <c r="J52" s="3">
+        <v>1031800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1282100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1539500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1923600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>655581000</v>
+        <v>673563000</v>
       </c>
       <c r="E54" s="3">
-        <v>636033000</v>
+        <v>669634000</v>
       </c>
       <c r="F54" s="3">
-        <v>615991000</v>
+        <v>649667000</v>
       </c>
       <c r="G54" s="3">
-        <v>606827000</v>
+        <v>629195000</v>
       </c>
       <c r="H54" s="3">
-        <v>587270000</v>
+        <v>619835000</v>
       </c>
       <c r="I54" s="3">
-        <v>557396000</v>
+        <v>599858000</v>
       </c>
       <c r="J54" s="3">
+        <v>569344000</v>
+      </c>
+      <c r="K54" s="3">
         <v>506963000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>477538000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>486317000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,107 +2267,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>834500</v>
+        <v>923300</v>
       </c>
       <c r="E57" s="3">
-        <v>1019600</v>
+        <v>852300</v>
       </c>
       <c r="F57" s="3">
-        <v>801900</v>
+        <v>1041400</v>
       </c>
       <c r="G57" s="3">
-        <v>812800</v>
+        <v>819100</v>
       </c>
       <c r="H57" s="3">
-        <v>922700</v>
+        <v>830200</v>
       </c>
       <c r="I57" s="3">
-        <v>744800</v>
+        <v>942500</v>
       </c>
       <c r="J57" s="3">
+        <v>760800</v>
+      </c>
+      <c r="K57" s="3">
         <v>736800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>648800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>725600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29738900</v>
+        <v>37006800</v>
       </c>
       <c r="E58" s="3">
-        <v>22535400</v>
+        <v>30376400</v>
       </c>
       <c r="F58" s="3">
-        <v>26819800</v>
+        <v>23018500</v>
       </c>
       <c r="G58" s="3">
-        <v>19092000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>27394700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>19501300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>35714600</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2017400</v>
+        <v>1061400</v>
       </c>
       <c r="E59" s="3">
-        <v>2360200</v>
+        <v>2060700</v>
       </c>
       <c r="F59" s="3">
-        <v>2194600</v>
+        <v>2410800</v>
       </c>
       <c r="G59" s="3">
-        <v>2143300</v>
+        <v>2241700</v>
       </c>
       <c r="H59" s="3">
-        <v>2288600</v>
+        <v>2189200</v>
       </c>
       <c r="I59" s="3">
-        <v>2588000</v>
+        <v>2337700</v>
       </c>
       <c r="J59" s="3">
+        <v>2643400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2794800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2367300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2388700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>128311000</v>
+        <v>115572000</v>
       </c>
       <c r="E61" s="3">
-        <v>117296000</v>
+        <v>131061000</v>
       </c>
       <c r="F61" s="3">
-        <v>110250000</v>
+        <v>119811000</v>
       </c>
       <c r="G61" s="3">
-        <v>118339000</v>
+        <v>112614000</v>
       </c>
       <c r="H61" s="3">
-        <v>107764000</v>
+        <v>120876000</v>
       </c>
       <c r="I61" s="3">
-        <v>94934400</v>
+        <v>110074000</v>
       </c>
       <c r="J61" s="3">
+        <v>96969300</v>
+      </c>
+      <c r="K61" s="3">
         <v>88391000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6747400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5930300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2323300</v>
+        <v>3998000</v>
       </c>
       <c r="E62" s="3">
-        <v>1425200</v>
+        <v>2373100</v>
       </c>
       <c r="F62" s="3">
-        <v>1223500</v>
+        <v>1455800</v>
       </c>
       <c r="G62" s="3">
-        <v>1256700</v>
+        <v>1249700</v>
       </c>
       <c r="H62" s="3">
-        <v>1255300</v>
+        <v>1283700</v>
       </c>
       <c r="I62" s="3">
-        <v>1437500</v>
+        <v>1282200</v>
       </c>
       <c r="J62" s="3">
+        <v>1468300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1332700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1839500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1711000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>608252000</v>
+        <v>623322000</v>
       </c>
       <c r="E66" s="3">
-        <v>589378000</v>
+        <v>621290000</v>
       </c>
       <c r="F66" s="3">
-        <v>571674000</v>
+        <v>602011000</v>
       </c>
       <c r="G66" s="3">
-        <v>564800000</v>
+        <v>583928000</v>
       </c>
       <c r="H66" s="3">
-        <v>548875000</v>
+        <v>576907000</v>
       </c>
       <c r="I66" s="3">
-        <v>522357000</v>
+        <v>560640000</v>
       </c>
       <c r="J66" s="3">
+        <v>533554000</v>
+      </c>
+      <c r="K66" s="3">
         <v>473213000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>446232000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>455969000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20834000</v>
+        <v>20856600</v>
       </c>
       <c r="E72" s="3">
-        <v>21258400</v>
+        <v>21280500</v>
       </c>
       <c r="F72" s="3">
-        <v>19894700</v>
+        <v>21714100</v>
       </c>
       <c r="G72" s="3">
-        <v>18578600</v>
+        <v>20321100</v>
       </c>
       <c r="H72" s="3">
-        <v>17623400</v>
+        <v>18976800</v>
       </c>
       <c r="I72" s="3">
-        <v>15702800</v>
+        <v>18001200</v>
       </c>
       <c r="J72" s="3">
+        <v>16039400</v>
+      </c>
+      <c r="K72" s="3">
         <v>14370900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12795800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12013800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47329800</v>
+        <v>50241800</v>
       </c>
       <c r="E76" s="3">
-        <v>46655100</v>
+        <v>48344300</v>
       </c>
       <c r="F76" s="3">
-        <v>44317400</v>
+        <v>47655200</v>
       </c>
       <c r="G76" s="3">
-        <v>42026600</v>
+        <v>45267300</v>
       </c>
       <c r="H76" s="3">
-        <v>38395200</v>
+        <v>42927400</v>
       </c>
       <c r="I76" s="3">
-        <v>35038500</v>
+        <v>39218200</v>
       </c>
       <c r="J76" s="3">
+        <v>35789600</v>
+      </c>
+      <c r="K76" s="3">
         <v>33750000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31306200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30348900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41912</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4901200</v>
+        <v>1689900</v>
       </c>
       <c r="E81" s="3">
-        <v>5849900</v>
+        <v>5006200</v>
       </c>
       <c r="F81" s="3">
-        <v>5773200</v>
+        <v>5975300</v>
       </c>
       <c r="G81" s="3">
-        <v>5379900</v>
+        <v>5897000</v>
       </c>
       <c r="H81" s="3">
-        <v>5789100</v>
+        <v>5495200</v>
       </c>
       <c r="I81" s="3">
-        <v>5460100</v>
+        <v>5913200</v>
       </c>
       <c r="J81" s="3">
+        <v>5577200</v>
+      </c>
+      <c r="K81" s="3">
         <v>4873000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4191900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5066900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>780200</v>
+        <v>1826600</v>
       </c>
       <c r="E83" s="3">
-        <v>827200</v>
+        <v>796900</v>
       </c>
       <c r="F83" s="3">
-        <v>917600</v>
+        <v>845000</v>
       </c>
       <c r="G83" s="3">
-        <v>873500</v>
+        <v>937300</v>
       </c>
       <c r="H83" s="3">
-        <v>1208300</v>
+        <v>892200</v>
       </c>
       <c r="I83" s="3">
-        <v>737600</v>
+        <v>1234200</v>
       </c>
       <c r="J83" s="3">
+        <v>753400</v>
+      </c>
+      <c r="K83" s="3">
         <v>653700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>601400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>523200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5136900</v>
+        <v>43319600</v>
       </c>
       <c r="E89" s="3">
-        <v>14295700</v>
+        <v>5247000</v>
       </c>
       <c r="F89" s="3">
-        <v>2051400</v>
+        <v>14602100</v>
       </c>
       <c r="G89" s="3">
-        <v>3974900</v>
+        <v>2095400</v>
       </c>
       <c r="H89" s="3">
-        <v>-391200</v>
+        <v>4060100</v>
       </c>
       <c r="I89" s="3">
-        <v>20515100</v>
+        <v>-399600</v>
       </c>
       <c r="J89" s="3">
+        <v>20954800</v>
+      </c>
+      <c r="K89" s="3">
         <v>18496900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10998100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5709700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-202500</v>
+        <v>-177300</v>
       </c>
       <c r="E91" s="3">
-        <v>-224200</v>
+        <v>-206800</v>
       </c>
       <c r="F91" s="3">
-        <v>-190900</v>
+        <v>-229000</v>
       </c>
       <c r="G91" s="3">
-        <v>-376700</v>
+        <v>-195000</v>
       </c>
       <c r="H91" s="3">
-        <v>-489500</v>
+        <v>-384800</v>
       </c>
       <c r="I91" s="3">
-        <v>-372400</v>
+        <v>-500000</v>
       </c>
       <c r="J91" s="3">
+        <v>-380400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-219800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-178300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-830100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7787100</v>
+        <v>-14385700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1171400</v>
+        <v>-7954000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1227800</v>
+        <v>-1196500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5238900</v>
+        <v>-1254100</v>
       </c>
       <c r="H94" s="3">
-        <v>-13532800</v>
+        <v>-5351200</v>
       </c>
       <c r="I94" s="3">
-        <v>-10543500</v>
+        <v>-13822900</v>
       </c>
       <c r="J94" s="3">
+        <v>-10769500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5635800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4421900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4543700</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3598900</v>
+        <v>-1859800</v>
       </c>
       <c r="E96" s="3">
-        <v>-4171600</v>
+        <v>-3676000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3499100</v>
+        <v>-4261000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3906200</v>
+        <v>-3574100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3138300</v>
+        <v>-3989900</v>
       </c>
       <c r="I96" s="3">
-        <v>-4220700</v>
+        <v>-3205500</v>
       </c>
       <c r="J96" s="3">
+        <v>-4311200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3635700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2865400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2718100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2627000</v>
+        <v>-21273900</v>
       </c>
       <c r="E100" s="3">
-        <v>-8020600</v>
+        <v>-2683300</v>
       </c>
       <c r="F100" s="3">
-        <v>399200</v>
+        <v>-8192600</v>
       </c>
       <c r="G100" s="3">
-        <v>3306700</v>
+        <v>407700</v>
       </c>
       <c r="H100" s="3">
-        <v>3986500</v>
+        <v>3377600</v>
       </c>
       <c r="I100" s="3">
-        <v>-698500</v>
+        <v>4071900</v>
       </c>
       <c r="J100" s="3">
+        <v>-713500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-14668100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8889000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6668300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>411400</v>
+        <v>-222300</v>
       </c>
       <c r="E101" s="3">
-        <v>682600</v>
+        <v>420300</v>
       </c>
       <c r="F101" s="3">
-        <v>-218400</v>
+        <v>697200</v>
       </c>
       <c r="G101" s="3">
-        <v>-419400</v>
+        <v>-223100</v>
       </c>
       <c r="H101" s="3">
-        <v>1990700</v>
+        <v>-428400</v>
       </c>
       <c r="I101" s="3">
-        <v>894500</v>
+        <v>2033400</v>
       </c>
       <c r="J101" s="3">
+        <v>913600</v>
+      </c>
+      <c r="K101" s="3">
         <v>1211200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-329700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>723400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4865700</v>
+        <v>7437700</v>
       </c>
       <c r="E102" s="3">
-        <v>5786200</v>
+        <v>-4970000</v>
       </c>
       <c r="F102" s="3">
-        <v>1004400</v>
+        <v>5910300</v>
       </c>
       <c r="G102" s="3">
-        <v>1623400</v>
+        <v>1025900</v>
       </c>
       <c r="H102" s="3">
-        <v>-7946900</v>
+        <v>1658200</v>
       </c>
       <c r="I102" s="3">
-        <v>10167500</v>
+        <v>-8117200</v>
       </c>
       <c r="J102" s="3">
+        <v>10385500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-595800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2642500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8557700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19976900</v>
+        <v>20498900</v>
       </c>
       <c r="E8" s="3">
-        <v>24537800</v>
+        <v>25179000</v>
       </c>
       <c r="F8" s="3">
-        <v>24056900</v>
+        <v>24685600</v>
       </c>
       <c r="G8" s="3">
-        <v>23068000</v>
+        <v>23670700</v>
       </c>
       <c r="H8" s="3">
-        <v>23503700</v>
+        <v>24117900</v>
       </c>
       <c r="I8" s="3">
-        <v>23853100</v>
+        <v>24476400</v>
       </c>
       <c r="J8" s="3">
-        <v>23818400</v>
+        <v>24440800</v>
       </c>
       <c r="K8" s="3">
         <v>23868800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1700300</v>
+        <v>-1744700</v>
       </c>
       <c r="E15" s="3">
-        <v>-778500</v>
+        <v>-798800</v>
       </c>
       <c r="F15" s="3">
-        <v>-843500</v>
+        <v>-865500</v>
       </c>
       <c r="G15" s="3">
-        <v>-1390800</v>
+        <v>-1427100</v>
       </c>
       <c r="H15" s="3">
-        <v>-907000</v>
+        <v>-930700</v>
       </c>
       <c r="I15" s="3">
-        <v>-1234200</v>
+        <v>-1266500</v>
       </c>
       <c r="J15" s="3">
-        <v>-753400</v>
+        <v>-773100</v>
       </c>
       <c r="K15" s="3">
         <v>-653700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8231700</v>
+        <v>8446800</v>
       </c>
       <c r="E17" s="3">
-        <v>12636700</v>
+        <v>12966900</v>
       </c>
       <c r="F17" s="3">
-        <v>12390800</v>
+        <v>12714500</v>
       </c>
       <c r="G17" s="3">
-        <v>12237900</v>
+        <v>12557600</v>
       </c>
       <c r="H17" s="3">
-        <v>13145600</v>
+        <v>13489100</v>
       </c>
       <c r="I17" s="3">
-        <v>13871600</v>
+        <v>14234100</v>
       </c>
       <c r="J17" s="3">
-        <v>14296300</v>
+        <v>14669900</v>
       </c>
       <c r="K17" s="3">
         <v>15210400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11745200</v>
+        <v>12052100</v>
       </c>
       <c r="E18" s="3">
-        <v>11901100</v>
+        <v>12212000</v>
       </c>
       <c r="F18" s="3">
-        <v>11666200</v>
+        <v>11971000</v>
       </c>
       <c r="G18" s="3">
-        <v>10830100</v>
+        <v>11113100</v>
       </c>
       <c r="H18" s="3">
-        <v>10358100</v>
+        <v>10628800</v>
       </c>
       <c r="I18" s="3">
-        <v>9981400</v>
+        <v>10242300</v>
       </c>
       <c r="J18" s="3">
-        <v>9522000</v>
+        <v>9770800</v>
       </c>
       <c r="K18" s="3">
         <v>8658400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8594300</v>
+        <v>-8818900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4700500</v>
+        <v>-4823300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3001700</v>
+        <v>-3080100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2325100</v>
+        <v>-2385900</v>
       </c>
       <c r="H20" s="3">
-        <v>-2496500</v>
+        <v>-2561700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1549600</v>
+        <v>-1590100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1589500</v>
+        <v>-1631000</v>
       </c>
       <c r="K20" s="3">
         <v>-1592300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4971200</v>
+        <v>5108200</v>
       </c>
       <c r="E21" s="3">
-        <v>7994900</v>
+        <v>8206900</v>
       </c>
       <c r="F21" s="3">
-        <v>9506600</v>
+        <v>9758300</v>
       </c>
       <c r="G21" s="3">
-        <v>9439100</v>
+        <v>9689400</v>
       </c>
       <c r="H21" s="3">
-        <v>8750900</v>
+        <v>8983000</v>
       </c>
       <c r="I21" s="3">
-        <v>9661900</v>
+        <v>9919100</v>
       </c>
       <c r="J21" s="3">
-        <v>8683400</v>
+        <v>8913200</v>
       </c>
       <c r="K21" s="3">
         <v>7716500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3150900</v>
+        <v>3233200</v>
       </c>
       <c r="E23" s="3">
-        <v>7200600</v>
+        <v>7388800</v>
       </c>
       <c r="F23" s="3">
-        <v>8664500</v>
+        <v>8890900</v>
       </c>
       <c r="G23" s="3">
-        <v>8505000</v>
+        <v>8727200</v>
       </c>
       <c r="H23" s="3">
-        <v>7861700</v>
+        <v>8067100</v>
       </c>
       <c r="I23" s="3">
-        <v>8431900</v>
+        <v>8652200</v>
       </c>
       <c r="J23" s="3">
-        <v>7932600</v>
+        <v>8139800</v>
       </c>
       <c r="K23" s="3">
         <v>7066100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1458000</v>
+        <v>1496100</v>
       </c>
       <c r="E24" s="3">
-        <v>2185500</v>
+        <v>2242600</v>
       </c>
       <c r="F24" s="3">
-        <v>2682600</v>
+        <v>2752700</v>
       </c>
       <c r="G24" s="3">
-        <v>2598400</v>
+        <v>2666300</v>
       </c>
       <c r="H24" s="3">
-        <v>2351700</v>
+        <v>2413200</v>
       </c>
       <c r="I24" s="3">
-        <v>2472800</v>
+        <v>2537400</v>
       </c>
       <c r="J24" s="3">
-        <v>2300700</v>
+        <v>2360900</v>
       </c>
       <c r="K24" s="3">
         <v>2131000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1692900</v>
+        <v>1737100</v>
       </c>
       <c r="E26" s="3">
-        <v>5015100</v>
+        <v>5146100</v>
       </c>
       <c r="F26" s="3">
-        <v>5981900</v>
+        <v>6138200</v>
       </c>
       <c r="G26" s="3">
-        <v>5906600</v>
+        <v>6060900</v>
       </c>
       <c r="H26" s="3">
-        <v>5510000</v>
+        <v>5653900</v>
       </c>
       <c r="I26" s="3">
-        <v>5959000</v>
+        <v>6114700</v>
       </c>
       <c r="J26" s="3">
-        <v>5631800</v>
+        <v>5779000</v>
       </c>
       <c r="K26" s="3">
         <v>4935200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1689900</v>
+        <v>1734100</v>
       </c>
       <c r="E27" s="3">
-        <v>5006200</v>
+        <v>5137000</v>
       </c>
       <c r="F27" s="3">
-        <v>5975300</v>
+        <v>6131400</v>
       </c>
       <c r="G27" s="3">
-        <v>5897000</v>
+        <v>6051100</v>
       </c>
       <c r="H27" s="3">
-        <v>5495200</v>
+        <v>5638800</v>
       </c>
       <c r="I27" s="3">
-        <v>5913200</v>
+        <v>6067700</v>
       </c>
       <c r="J27" s="3">
-        <v>5577200</v>
+        <v>5722900</v>
       </c>
       <c r="K27" s="3">
         <v>4873000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8594300</v>
+        <v>8818900</v>
       </c>
       <c r="E32" s="3">
-        <v>4700500</v>
+        <v>4823300</v>
       </c>
       <c r="F32" s="3">
-        <v>3001700</v>
+        <v>3080100</v>
       </c>
       <c r="G32" s="3">
-        <v>2325100</v>
+        <v>2385900</v>
       </c>
       <c r="H32" s="3">
-        <v>2496500</v>
+        <v>2561700</v>
       </c>
       <c r="I32" s="3">
-        <v>1549600</v>
+        <v>1590100</v>
       </c>
       <c r="J32" s="3">
-        <v>1589500</v>
+        <v>1631000</v>
       </c>
       <c r="K32" s="3">
         <v>1592300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1689900</v>
+        <v>1734100</v>
       </c>
       <c r="E33" s="3">
-        <v>5006200</v>
+        <v>5137000</v>
       </c>
       <c r="F33" s="3">
-        <v>5975300</v>
+        <v>6131400</v>
       </c>
       <c r="G33" s="3">
-        <v>5897000</v>
+        <v>6051100</v>
       </c>
       <c r="H33" s="3">
-        <v>5495200</v>
+        <v>5638800</v>
       </c>
       <c r="I33" s="3">
-        <v>5913200</v>
+        <v>6067700</v>
       </c>
       <c r="J33" s="3">
-        <v>5577200</v>
+        <v>5722900</v>
       </c>
       <c r="K33" s="3">
         <v>4873000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1689900</v>
+        <v>1734100</v>
       </c>
       <c r="E35" s="3">
-        <v>5006200</v>
+        <v>5137000</v>
       </c>
       <c r="F35" s="3">
-        <v>5975300</v>
+        <v>6131400</v>
       </c>
       <c r="G35" s="3">
-        <v>5897000</v>
+        <v>6051100</v>
       </c>
       <c r="H35" s="3">
-        <v>5495200</v>
+        <v>5638800</v>
       </c>
       <c r="I35" s="3">
-        <v>5913200</v>
+        <v>6067700</v>
       </c>
       <c r="J35" s="3">
-        <v>5577200</v>
+        <v>5722900</v>
       </c>
       <c r="K35" s="3">
         <v>4873000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22474100</v>
+        <v>23061400</v>
       </c>
       <c r="E41" s="3">
-        <v>15195200</v>
+        <v>15592300</v>
       </c>
       <c r="F41" s="3">
-        <v>20598800</v>
+        <v>21137100</v>
       </c>
       <c r="G41" s="3">
-        <v>28870400</v>
+        <v>29624800</v>
       </c>
       <c r="H41" s="3">
-        <v>14652300</v>
+        <v>15035200</v>
       </c>
       <c r="I41" s="3">
-        <v>12372300</v>
+        <v>12695600</v>
       </c>
       <c r="J41" s="3">
-        <v>27289100</v>
+        <v>28002100</v>
       </c>
       <c r="K41" s="3">
         <v>28090300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39902100</v>
+        <v>40944800</v>
       </c>
       <c r="E42" s="3">
-        <v>35302900</v>
+        <v>36225300</v>
       </c>
       <c r="F42" s="3">
-        <v>38349600</v>
+        <v>39351700</v>
       </c>
       <c r="G42" s="3">
-        <v>40799500</v>
+        <v>41865600</v>
       </c>
       <c r="H42" s="3">
-        <v>45728900</v>
+        <v>46923900</v>
       </c>
       <c r="I42" s="3">
-        <v>62439800</v>
+        <v>64071400</v>
       </c>
       <c r="J42" s="3">
-        <v>66671200</v>
+        <v>68413400</v>
       </c>
       <c r="K42" s="3">
         <v>91608100</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45100</v>
+        <v>46200</v>
       </c>
       <c r="E47" s="3">
-        <v>95300</v>
+        <v>97800</v>
       </c>
       <c r="F47" s="3">
-        <v>84900</v>
+        <v>87200</v>
       </c>
       <c r="G47" s="3">
-        <v>44300</v>
+        <v>45500</v>
       </c>
       <c r="H47" s="3">
-        <v>536200</v>
+        <v>550200</v>
       </c>
       <c r="I47" s="3">
-        <v>558400</v>
+        <v>573000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2887900</v>
+        <v>2963400</v>
       </c>
       <c r="E48" s="3">
-        <v>853100</v>
+        <v>875400</v>
       </c>
       <c r="F48" s="3">
-        <v>981600</v>
+        <v>1007200</v>
       </c>
       <c r="G48" s="3">
-        <v>1098300</v>
+        <v>1127000</v>
       </c>
       <c r="H48" s="3">
-        <v>1282900</v>
+        <v>1316500</v>
       </c>
       <c r="I48" s="3">
-        <v>1175900</v>
+        <v>1206600</v>
       </c>
       <c r="J48" s="3">
-        <v>1072400</v>
+        <v>1100500</v>
       </c>
       <c r="K48" s="3">
         <v>1697800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8491700</v>
+        <v>8713600</v>
       </c>
       <c r="E49" s="3">
-        <v>8828500</v>
+        <v>9059200</v>
       </c>
       <c r="F49" s="3">
-        <v>8688200</v>
+        <v>8915200</v>
       </c>
       <c r="G49" s="3">
-        <v>8606200</v>
+        <v>8831100</v>
       </c>
       <c r="H49" s="3">
-        <v>8508700</v>
+        <v>8731000</v>
       </c>
       <c r="I49" s="3">
-        <v>8548600</v>
+        <v>8771900</v>
       </c>
       <c r="J49" s="3">
-        <v>9310800</v>
+        <v>9554100</v>
       </c>
       <c r="K49" s="3">
         <v>17847600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2263100</v>
+        <v>2322200</v>
       </c>
       <c r="E52" s="3">
-        <v>1512700</v>
+        <v>1552200</v>
       </c>
       <c r="F52" s="3">
-        <v>871500</v>
+        <v>894300</v>
       </c>
       <c r="G52" s="3">
-        <v>821300</v>
+        <v>842800</v>
       </c>
       <c r="H52" s="3">
-        <v>1146300</v>
+        <v>1176300</v>
       </c>
       <c r="I52" s="3">
-        <v>1017100</v>
+        <v>1043600</v>
       </c>
       <c r="J52" s="3">
-        <v>1031800</v>
+        <v>1058800</v>
       </c>
       <c r="K52" s="3">
         <v>1282100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>673563000</v>
+        <v>691164000</v>
       </c>
       <c r="E54" s="3">
-        <v>669634000</v>
+        <v>687132000</v>
       </c>
       <c r="F54" s="3">
-        <v>649667000</v>
+        <v>666643000</v>
       </c>
       <c r="G54" s="3">
-        <v>629195000</v>
+        <v>645636000</v>
       </c>
       <c r="H54" s="3">
-        <v>619835000</v>
+        <v>636031000</v>
       </c>
       <c r="I54" s="3">
-        <v>599858000</v>
+        <v>615533000</v>
       </c>
       <c r="J54" s="3">
-        <v>569344000</v>
+        <v>584221000</v>
       </c>
       <c r="K54" s="3">
         <v>506963000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>923300</v>
+        <v>947400</v>
       </c>
       <c r="E57" s="3">
-        <v>852300</v>
+        <v>874600</v>
       </c>
       <c r="F57" s="3">
-        <v>1041400</v>
+        <v>1068600</v>
       </c>
       <c r="G57" s="3">
-        <v>819100</v>
+        <v>840500</v>
       </c>
       <c r="H57" s="3">
-        <v>830200</v>
+        <v>851900</v>
       </c>
       <c r="I57" s="3">
-        <v>942500</v>
+        <v>967100</v>
       </c>
       <c r="J57" s="3">
-        <v>760800</v>
+        <v>780600</v>
       </c>
       <c r="K57" s="3">
         <v>736800</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37006800</v>
+        <v>37973800</v>
       </c>
       <c r="E58" s="3">
-        <v>30376400</v>
+        <v>31170200</v>
       </c>
       <c r="F58" s="3">
-        <v>23018500</v>
+        <v>23620000</v>
       </c>
       <c r="G58" s="3">
-        <v>27394700</v>
+        <v>28110500</v>
       </c>
       <c r="H58" s="3">
-        <v>19501300</v>
+        <v>20010800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1061400</v>
+        <v>1089100</v>
       </c>
       <c r="E59" s="3">
-        <v>2060700</v>
+        <v>2114500</v>
       </c>
       <c r="F59" s="3">
-        <v>2410800</v>
+        <v>2473800</v>
       </c>
       <c r="G59" s="3">
-        <v>2241700</v>
+        <v>2300200</v>
       </c>
       <c r="H59" s="3">
-        <v>2189200</v>
+        <v>2246400</v>
       </c>
       <c r="I59" s="3">
-        <v>2337700</v>
+        <v>2398800</v>
       </c>
       <c r="J59" s="3">
-        <v>2643400</v>
+        <v>2712500</v>
       </c>
       <c r="K59" s="3">
         <v>2794800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>115572000</v>
+        <v>118592000</v>
       </c>
       <c r="E61" s="3">
-        <v>131061000</v>
+        <v>134486000</v>
       </c>
       <c r="F61" s="3">
-        <v>119811000</v>
+        <v>122941000</v>
       </c>
       <c r="G61" s="3">
-        <v>112614000</v>
+        <v>115556000</v>
       </c>
       <c r="H61" s="3">
-        <v>120876000</v>
+        <v>124034000</v>
       </c>
       <c r="I61" s="3">
-        <v>110074000</v>
+        <v>112951000</v>
       </c>
       <c r="J61" s="3">
-        <v>96969300</v>
+        <v>99503200</v>
       </c>
       <c r="K61" s="3">
         <v>88391000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3998000</v>
+        <v>4102500</v>
       </c>
       <c r="E62" s="3">
-        <v>2373100</v>
+        <v>2435100</v>
       </c>
       <c r="F62" s="3">
-        <v>1455800</v>
+        <v>1493800</v>
       </c>
       <c r="G62" s="3">
-        <v>1249700</v>
+        <v>1282400</v>
       </c>
       <c r="H62" s="3">
-        <v>1283700</v>
+        <v>1317200</v>
       </c>
       <c r="I62" s="3">
-        <v>1282200</v>
+        <v>1315700</v>
       </c>
       <c r="J62" s="3">
-        <v>1468300</v>
+        <v>1506700</v>
       </c>
       <c r="K62" s="3">
         <v>1332700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>623322000</v>
+        <v>639609000</v>
       </c>
       <c r="E66" s="3">
-        <v>621290000</v>
+        <v>637524000</v>
       </c>
       <c r="F66" s="3">
-        <v>602011000</v>
+        <v>617742000</v>
       </c>
       <c r="G66" s="3">
-        <v>583928000</v>
+        <v>599186000</v>
       </c>
       <c r="H66" s="3">
-        <v>576907000</v>
+        <v>591982000</v>
       </c>
       <c r="I66" s="3">
-        <v>560640000</v>
+        <v>575290000</v>
       </c>
       <c r="J66" s="3">
-        <v>533554000</v>
+        <v>547496000</v>
       </c>
       <c r="K66" s="3">
         <v>473213000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20856600</v>
+        <v>21401600</v>
       </c>
       <c r="E72" s="3">
-        <v>21280500</v>
+        <v>21836600</v>
       </c>
       <c r="F72" s="3">
-        <v>21714100</v>
+        <v>22281500</v>
       </c>
       <c r="G72" s="3">
-        <v>20321100</v>
+        <v>20852100</v>
       </c>
       <c r="H72" s="3">
-        <v>18976800</v>
+        <v>19472700</v>
       </c>
       <c r="I72" s="3">
-        <v>18001200</v>
+        <v>18471500</v>
       </c>
       <c r="J72" s="3">
-        <v>16039400</v>
+        <v>16458600</v>
       </c>
       <c r="K72" s="3">
         <v>14370900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50241800</v>
+        <v>51554600</v>
       </c>
       <c r="E76" s="3">
-        <v>48344300</v>
+        <v>49607600</v>
       </c>
       <c r="F76" s="3">
-        <v>47655200</v>
+        <v>48900500</v>
       </c>
       <c r="G76" s="3">
-        <v>45267300</v>
+        <v>46450200</v>
       </c>
       <c r="H76" s="3">
-        <v>42927400</v>
+        <v>44049100</v>
       </c>
       <c r="I76" s="3">
-        <v>39218200</v>
+        <v>40243000</v>
       </c>
       <c r="J76" s="3">
-        <v>35789600</v>
+        <v>36724800</v>
       </c>
       <c r="K76" s="3">
         <v>33750000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1689900</v>
+        <v>1734100</v>
       </c>
       <c r="E81" s="3">
-        <v>5006200</v>
+        <v>5137000</v>
       </c>
       <c r="F81" s="3">
-        <v>5975300</v>
+        <v>6131400</v>
       </c>
       <c r="G81" s="3">
-        <v>5897000</v>
+        <v>6051100</v>
       </c>
       <c r="H81" s="3">
-        <v>5495200</v>
+        <v>5638800</v>
       </c>
       <c r="I81" s="3">
-        <v>5913200</v>
+        <v>6067700</v>
       </c>
       <c r="J81" s="3">
-        <v>5577200</v>
+        <v>5722900</v>
       </c>
       <c r="K81" s="3">
         <v>4873000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1826600</v>
+        <v>1874300</v>
       </c>
       <c r="E83" s="3">
-        <v>796900</v>
+        <v>817800</v>
       </c>
       <c r="F83" s="3">
-        <v>845000</v>
+        <v>867000</v>
       </c>
       <c r="G83" s="3">
-        <v>937300</v>
+        <v>961800</v>
       </c>
       <c r="H83" s="3">
-        <v>892200</v>
+        <v>915500</v>
       </c>
       <c r="I83" s="3">
-        <v>1234200</v>
+        <v>1266500</v>
       </c>
       <c r="J83" s="3">
-        <v>753400</v>
+        <v>773100</v>
       </c>
       <c r="K83" s="3">
         <v>653700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43319600</v>
+        <v>44451600</v>
       </c>
       <c r="E89" s="3">
-        <v>5247000</v>
+        <v>5384100</v>
       </c>
       <c r="F89" s="3">
-        <v>14602100</v>
+        <v>14983700</v>
       </c>
       <c r="G89" s="3">
-        <v>2095400</v>
+        <v>2150200</v>
       </c>
       <c r="H89" s="3">
-        <v>4060100</v>
+        <v>4166200</v>
       </c>
       <c r="I89" s="3">
-        <v>-399600</v>
+        <v>-410000</v>
       </c>
       <c r="J89" s="3">
-        <v>20954800</v>
+        <v>21502400</v>
       </c>
       <c r="K89" s="3">
         <v>18496900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-177300</v>
+        <v>-181900</v>
       </c>
       <c r="E91" s="3">
-        <v>-206800</v>
+        <v>-212200</v>
       </c>
       <c r="F91" s="3">
-        <v>-229000</v>
+        <v>-234900</v>
       </c>
       <c r="G91" s="3">
-        <v>-195000</v>
+        <v>-200100</v>
       </c>
       <c r="H91" s="3">
-        <v>-384800</v>
+        <v>-394900</v>
       </c>
       <c r="I91" s="3">
-        <v>-500000</v>
+        <v>-513100</v>
       </c>
       <c r="J91" s="3">
-        <v>-380400</v>
+        <v>-390300</v>
       </c>
       <c r="K91" s="3">
         <v>-219800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14385700</v>
+        <v>-14761600</v>
       </c>
       <c r="E94" s="3">
-        <v>-7954000</v>
+        <v>-8161800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1196500</v>
+        <v>-1227800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1254100</v>
+        <v>-1286900</v>
       </c>
       <c r="H94" s="3">
-        <v>-5351200</v>
+        <v>-5491000</v>
       </c>
       <c r="I94" s="3">
-        <v>-13822900</v>
+        <v>-14184100</v>
       </c>
       <c r="J94" s="3">
-        <v>-10769500</v>
+        <v>-11050900</v>
       </c>
       <c r="K94" s="3">
         <v>-5635800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1859800</v>
+        <v>-1908400</v>
       </c>
       <c r="E96" s="3">
-        <v>-3676000</v>
+        <v>-3772100</v>
       </c>
       <c r="F96" s="3">
-        <v>-4261000</v>
+        <v>-4372300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3574100</v>
+        <v>-3667500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3989900</v>
+        <v>-4094200</v>
       </c>
       <c r="I96" s="3">
-        <v>-3205500</v>
+        <v>-3289300</v>
       </c>
       <c r="J96" s="3">
-        <v>-4311200</v>
+        <v>-4423900</v>
       </c>
       <c r="K96" s="3">
         <v>-3635700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21273900</v>
+        <v>-21829800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2683300</v>
+        <v>-2753500</v>
       </c>
       <c r="F100" s="3">
-        <v>-8192600</v>
+        <v>-8406600</v>
       </c>
       <c r="G100" s="3">
-        <v>407700</v>
+        <v>418400</v>
       </c>
       <c r="H100" s="3">
-        <v>3377600</v>
+        <v>3465900</v>
       </c>
       <c r="I100" s="3">
-        <v>4071900</v>
+        <v>4178300</v>
       </c>
       <c r="J100" s="3">
-        <v>-713500</v>
+        <v>-732100</v>
       </c>
       <c r="K100" s="3">
         <v>-14668100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-222300</v>
+        <v>-228100</v>
       </c>
       <c r="E101" s="3">
-        <v>420300</v>
+        <v>431200</v>
       </c>
       <c r="F101" s="3">
-        <v>697200</v>
+        <v>715500</v>
       </c>
       <c r="G101" s="3">
-        <v>-223100</v>
+        <v>-228900</v>
       </c>
       <c r="H101" s="3">
-        <v>-428400</v>
+        <v>-439600</v>
       </c>
       <c r="I101" s="3">
-        <v>2033400</v>
+        <v>2086500</v>
       </c>
       <c r="J101" s="3">
-        <v>913600</v>
+        <v>937500</v>
       </c>
       <c r="K101" s="3">
         <v>1211200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7437700</v>
+        <v>7632100</v>
       </c>
       <c r="E102" s="3">
-        <v>-4970000</v>
+        <v>-5099900</v>
       </c>
       <c r="F102" s="3">
-        <v>5910300</v>
+        <v>6064700</v>
       </c>
       <c r="G102" s="3">
-        <v>1025900</v>
+        <v>1052700</v>
       </c>
       <c r="H102" s="3">
-        <v>1658200</v>
+        <v>1701500</v>
       </c>
       <c r="I102" s="3">
-        <v>-8117200</v>
+        <v>-8329300</v>
       </c>
       <c r="J102" s="3">
-        <v>10385500</v>
+        <v>10656800</v>
       </c>
       <c r="K102" s="3">
         <v>-595800</v>

--- a/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20498900</v>
+        <v>20961400</v>
       </c>
       <c r="E8" s="3">
-        <v>25179000</v>
+        <v>25747100</v>
       </c>
       <c r="F8" s="3">
-        <v>24685600</v>
+        <v>25242500</v>
       </c>
       <c r="G8" s="3">
-        <v>23670700</v>
+        <v>24204800</v>
       </c>
       <c r="H8" s="3">
-        <v>24117900</v>
+        <v>24662100</v>
       </c>
       <c r="I8" s="3">
-        <v>24476400</v>
+        <v>25028600</v>
       </c>
       <c r="J8" s="3">
-        <v>24440800</v>
+        <v>24992200</v>
       </c>
       <c r="K8" s="3">
         <v>23868800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1744700</v>
+        <v>-1784100</v>
       </c>
       <c r="E15" s="3">
-        <v>-798800</v>
+        <v>-816900</v>
       </c>
       <c r="F15" s="3">
-        <v>-865500</v>
+        <v>-885100</v>
       </c>
       <c r="G15" s="3">
-        <v>-1427100</v>
+        <v>-1459300</v>
       </c>
       <c r="H15" s="3">
-        <v>-930700</v>
+        <v>-951700</v>
       </c>
       <c r="I15" s="3">
-        <v>-1266500</v>
+        <v>-1295000</v>
       </c>
       <c r="J15" s="3">
-        <v>-773100</v>
+        <v>-790500</v>
       </c>
       <c r="K15" s="3">
         <v>-653700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8446800</v>
+        <v>8637400</v>
       </c>
       <c r="E17" s="3">
-        <v>12966900</v>
+        <v>13259500</v>
       </c>
       <c r="F17" s="3">
-        <v>12714500</v>
+        <v>13001400</v>
       </c>
       <c r="G17" s="3">
-        <v>12557600</v>
+        <v>12841000</v>
       </c>
       <c r="H17" s="3">
-        <v>13489100</v>
+        <v>13793500</v>
       </c>
       <c r="I17" s="3">
-        <v>14234100</v>
+        <v>14555300</v>
       </c>
       <c r="J17" s="3">
-        <v>14669900</v>
+        <v>15000900</v>
       </c>
       <c r="K17" s="3">
         <v>15210400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12052100</v>
+        <v>12324100</v>
       </c>
       <c r="E18" s="3">
-        <v>12212000</v>
+        <v>12487600</v>
       </c>
       <c r="F18" s="3">
-        <v>11971000</v>
+        <v>12241100</v>
       </c>
       <c r="G18" s="3">
-        <v>11113100</v>
+        <v>11363800</v>
       </c>
       <c r="H18" s="3">
-        <v>10628800</v>
+        <v>10868600</v>
       </c>
       <c r="I18" s="3">
-        <v>10242300</v>
+        <v>10473400</v>
       </c>
       <c r="J18" s="3">
-        <v>9770800</v>
+        <v>9991300</v>
       </c>
       <c r="K18" s="3">
         <v>8658400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8818900</v>
+        <v>-9017900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4823300</v>
+        <v>-4932100</v>
       </c>
       <c r="F20" s="3">
-        <v>-3080100</v>
+        <v>-3149600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2385900</v>
+        <v>-2439700</v>
       </c>
       <c r="H20" s="3">
-        <v>-2561700</v>
+        <v>-2619500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1590100</v>
+        <v>-1626000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1631000</v>
+        <v>-1667800</v>
       </c>
       <c r="K20" s="3">
         <v>-1592300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5108200</v>
+        <v>5223200</v>
       </c>
       <c r="E21" s="3">
-        <v>8206900</v>
+        <v>8391900</v>
       </c>
       <c r="F21" s="3">
-        <v>9758300</v>
+        <v>9978400</v>
       </c>
       <c r="G21" s="3">
-        <v>9689400</v>
+        <v>9907900</v>
       </c>
       <c r="H21" s="3">
-        <v>8983000</v>
+        <v>9185500</v>
       </c>
       <c r="I21" s="3">
-        <v>9919100</v>
+        <v>10142800</v>
       </c>
       <c r="J21" s="3">
-        <v>8913200</v>
+        <v>9114200</v>
       </c>
       <c r="K21" s="3">
         <v>7716500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3233200</v>
+        <v>3306200</v>
       </c>
       <c r="E23" s="3">
-        <v>7388800</v>
+        <v>7555500</v>
       </c>
       <c r="F23" s="3">
-        <v>8890900</v>
+        <v>9091500</v>
       </c>
       <c r="G23" s="3">
-        <v>8727200</v>
+        <v>8924100</v>
       </c>
       <c r="H23" s="3">
-        <v>8067100</v>
+        <v>8249100</v>
       </c>
       <c r="I23" s="3">
-        <v>8652200</v>
+        <v>8847400</v>
       </c>
       <c r="J23" s="3">
-        <v>8139800</v>
+        <v>8323500</v>
       </c>
       <c r="K23" s="3">
         <v>7066100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1496100</v>
+        <v>1529900</v>
       </c>
       <c r="E24" s="3">
-        <v>2242600</v>
+        <v>2293200</v>
       </c>
       <c r="F24" s="3">
-        <v>2752700</v>
+        <v>2814800</v>
       </c>
       <c r="G24" s="3">
-        <v>2666300</v>
+        <v>2726500</v>
       </c>
       <c r="H24" s="3">
-        <v>2413200</v>
+        <v>2467600</v>
       </c>
       <c r="I24" s="3">
-        <v>2537400</v>
+        <v>2594700</v>
       </c>
       <c r="J24" s="3">
-        <v>2360900</v>
+        <v>2414100</v>
       </c>
       <c r="K24" s="3">
         <v>2131000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1737100</v>
+        <v>1776300</v>
       </c>
       <c r="E26" s="3">
-        <v>5146100</v>
+        <v>5262300</v>
       </c>
       <c r="F26" s="3">
-        <v>6138200</v>
+        <v>6276700</v>
       </c>
       <c r="G26" s="3">
-        <v>6060900</v>
+        <v>6197700</v>
       </c>
       <c r="H26" s="3">
-        <v>5653900</v>
+        <v>5781500</v>
       </c>
       <c r="I26" s="3">
-        <v>6114700</v>
+        <v>6252700</v>
       </c>
       <c r="J26" s="3">
-        <v>5779000</v>
+        <v>5909400</v>
       </c>
       <c r="K26" s="3">
         <v>4935200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1734100</v>
+        <v>1773200</v>
       </c>
       <c r="E27" s="3">
-        <v>5137000</v>
+        <v>5253000</v>
       </c>
       <c r="F27" s="3">
-        <v>6131400</v>
+        <v>6269800</v>
       </c>
       <c r="G27" s="3">
-        <v>6051100</v>
+        <v>6187600</v>
       </c>
       <c r="H27" s="3">
-        <v>5638800</v>
+        <v>5766000</v>
       </c>
       <c r="I27" s="3">
-        <v>6067700</v>
+        <v>6204700</v>
       </c>
       <c r="J27" s="3">
-        <v>5722900</v>
+        <v>5852000</v>
       </c>
       <c r="K27" s="3">
         <v>4873000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8818900</v>
+        <v>9017900</v>
       </c>
       <c r="E32" s="3">
-        <v>4823300</v>
+        <v>4932100</v>
       </c>
       <c r="F32" s="3">
-        <v>3080100</v>
+        <v>3149600</v>
       </c>
       <c r="G32" s="3">
-        <v>2385900</v>
+        <v>2439700</v>
       </c>
       <c r="H32" s="3">
-        <v>2561700</v>
+        <v>2619500</v>
       </c>
       <c r="I32" s="3">
-        <v>1590100</v>
+        <v>1626000</v>
       </c>
       <c r="J32" s="3">
-        <v>1631000</v>
+        <v>1667800</v>
       </c>
       <c r="K32" s="3">
         <v>1592300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1734100</v>
+        <v>1773200</v>
       </c>
       <c r="E33" s="3">
-        <v>5137000</v>
+        <v>5253000</v>
       </c>
       <c r="F33" s="3">
-        <v>6131400</v>
+        <v>6269800</v>
       </c>
       <c r="G33" s="3">
-        <v>6051100</v>
+        <v>6187600</v>
       </c>
       <c r="H33" s="3">
-        <v>5638800</v>
+        <v>5766000</v>
       </c>
       <c r="I33" s="3">
-        <v>6067700</v>
+        <v>6204700</v>
       </c>
       <c r="J33" s="3">
-        <v>5722900</v>
+        <v>5852000</v>
       </c>
       <c r="K33" s="3">
         <v>4873000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1734100</v>
+        <v>1773200</v>
       </c>
       <c r="E35" s="3">
-        <v>5137000</v>
+        <v>5253000</v>
       </c>
       <c r="F35" s="3">
-        <v>6131400</v>
+        <v>6269800</v>
       </c>
       <c r="G35" s="3">
-        <v>6051100</v>
+        <v>6187600</v>
       </c>
       <c r="H35" s="3">
-        <v>5638800</v>
+        <v>5766000</v>
       </c>
       <c r="I35" s="3">
-        <v>6067700</v>
+        <v>6204700</v>
       </c>
       <c r="J35" s="3">
-        <v>5722900</v>
+        <v>5852000</v>
       </c>
       <c r="K35" s="3">
         <v>4873000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23061400</v>
+        <v>23581700</v>
       </c>
       <c r="E41" s="3">
-        <v>15592300</v>
+        <v>15944100</v>
       </c>
       <c r="F41" s="3">
-        <v>21137100</v>
+        <v>21614000</v>
       </c>
       <c r="G41" s="3">
-        <v>29624800</v>
+        <v>30293200</v>
       </c>
       <c r="H41" s="3">
-        <v>15035200</v>
+        <v>15374500</v>
       </c>
       <c r="I41" s="3">
-        <v>12695600</v>
+        <v>12982000</v>
       </c>
       <c r="J41" s="3">
-        <v>28002100</v>
+        <v>28633900</v>
       </c>
       <c r="K41" s="3">
         <v>28090300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40944800</v>
+        <v>41868600</v>
       </c>
       <c r="E42" s="3">
-        <v>36225300</v>
+        <v>37042700</v>
       </c>
       <c r="F42" s="3">
-        <v>39351700</v>
+        <v>40239600</v>
       </c>
       <c r="G42" s="3">
-        <v>41865600</v>
+        <v>42810200</v>
       </c>
       <c r="H42" s="3">
-        <v>46923900</v>
+        <v>47982600</v>
       </c>
       <c r="I42" s="3">
-        <v>64071400</v>
+        <v>65517000</v>
       </c>
       <c r="J42" s="3">
-        <v>68413400</v>
+        <v>69956900</v>
       </c>
       <c r="K42" s="3">
         <v>91608100</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46200</v>
+        <v>47300</v>
       </c>
       <c r="E47" s="3">
-        <v>97800</v>
+        <v>100000</v>
       </c>
       <c r="F47" s="3">
-        <v>87200</v>
+        <v>89100</v>
       </c>
       <c r="G47" s="3">
-        <v>45500</v>
+        <v>46500</v>
       </c>
       <c r="H47" s="3">
-        <v>550200</v>
+        <v>562600</v>
       </c>
       <c r="I47" s="3">
-        <v>573000</v>
+        <v>585900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2963400</v>
+        <v>3030300</v>
       </c>
       <c r="E48" s="3">
-        <v>875400</v>
+        <v>895100</v>
       </c>
       <c r="F48" s="3">
-        <v>1007200</v>
+        <v>1030000</v>
       </c>
       <c r="G48" s="3">
-        <v>1127000</v>
+        <v>1152400</v>
       </c>
       <c r="H48" s="3">
-        <v>1316500</v>
+        <v>1346200</v>
       </c>
       <c r="I48" s="3">
-        <v>1206600</v>
+        <v>1233800</v>
       </c>
       <c r="J48" s="3">
-        <v>1100500</v>
+        <v>1125300</v>
       </c>
       <c r="K48" s="3">
         <v>1697800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8713600</v>
+        <v>8910200</v>
       </c>
       <c r="E49" s="3">
-        <v>9059200</v>
+        <v>9263600</v>
       </c>
       <c r="F49" s="3">
-        <v>8915200</v>
+        <v>9116300</v>
       </c>
       <c r="G49" s="3">
-        <v>8831100</v>
+        <v>9030300</v>
       </c>
       <c r="H49" s="3">
-        <v>8731000</v>
+        <v>8928000</v>
       </c>
       <c r="I49" s="3">
-        <v>8771900</v>
+        <v>8969900</v>
       </c>
       <c r="J49" s="3">
-        <v>9554100</v>
+        <v>9769600</v>
       </c>
       <c r="K49" s="3">
         <v>17847600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2322200</v>
+        <v>2374600</v>
       </c>
       <c r="E52" s="3">
-        <v>1552200</v>
+        <v>1587200</v>
       </c>
       <c r="F52" s="3">
-        <v>894300</v>
+        <v>914500</v>
       </c>
       <c r="G52" s="3">
-        <v>842800</v>
+        <v>861800</v>
       </c>
       <c r="H52" s="3">
-        <v>1176300</v>
+        <v>1202800</v>
       </c>
       <c r="I52" s="3">
-        <v>1043600</v>
+        <v>1067200</v>
       </c>
       <c r="J52" s="3">
-        <v>1058800</v>
+        <v>1082700</v>
       </c>
       <c r="K52" s="3">
         <v>1282100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>691164000</v>
+        <v>706758000</v>
       </c>
       <c r="E54" s="3">
-        <v>687132000</v>
+        <v>702635000</v>
       </c>
       <c r="F54" s="3">
-        <v>666643000</v>
+        <v>681684000</v>
       </c>
       <c r="G54" s="3">
-        <v>645636000</v>
+        <v>660203000</v>
       </c>
       <c r="H54" s="3">
-        <v>636031000</v>
+        <v>650382000</v>
       </c>
       <c r="I54" s="3">
-        <v>615533000</v>
+        <v>629421000</v>
       </c>
       <c r="J54" s="3">
-        <v>584221000</v>
+        <v>597403000</v>
       </c>
       <c r="K54" s="3">
         <v>506963000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>947400</v>
+        <v>968800</v>
       </c>
       <c r="E57" s="3">
-        <v>874600</v>
+        <v>894400</v>
       </c>
       <c r="F57" s="3">
-        <v>1068600</v>
+        <v>1092800</v>
       </c>
       <c r="G57" s="3">
-        <v>840500</v>
+        <v>859500</v>
       </c>
       <c r="H57" s="3">
-        <v>851900</v>
+        <v>871100</v>
       </c>
       <c r="I57" s="3">
-        <v>967100</v>
+        <v>988900</v>
       </c>
       <c r="J57" s="3">
-        <v>780600</v>
+        <v>798300</v>
       </c>
       <c r="K57" s="3">
         <v>736800</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37973800</v>
+        <v>38830600</v>
       </c>
       <c r="E58" s="3">
-        <v>31170200</v>
+        <v>31873400</v>
       </c>
       <c r="F58" s="3">
-        <v>23620000</v>
+        <v>24152900</v>
       </c>
       <c r="G58" s="3">
-        <v>28110500</v>
+        <v>28744800</v>
       </c>
       <c r="H58" s="3">
-        <v>20010800</v>
+        <v>20462300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1089100</v>
+        <v>1113700</v>
       </c>
       <c r="E59" s="3">
-        <v>2114500</v>
+        <v>2162300</v>
       </c>
       <c r="F59" s="3">
-        <v>2473800</v>
+        <v>2529600</v>
       </c>
       <c r="G59" s="3">
-        <v>2300200</v>
+        <v>2352100</v>
       </c>
       <c r="H59" s="3">
-        <v>2246400</v>
+        <v>2297100</v>
       </c>
       <c r="I59" s="3">
-        <v>2398800</v>
+        <v>2452900</v>
       </c>
       <c r="J59" s="3">
-        <v>2712500</v>
+        <v>2773700</v>
       </c>
       <c r="K59" s="3">
         <v>2794800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>118592000</v>
+        <v>121267000</v>
       </c>
       <c r="E61" s="3">
-        <v>134486000</v>
+        <v>137520000</v>
       </c>
       <c r="F61" s="3">
-        <v>122941000</v>
+        <v>125715000</v>
       </c>
       <c r="G61" s="3">
-        <v>115556000</v>
+        <v>118164000</v>
       </c>
       <c r="H61" s="3">
-        <v>124034000</v>
+        <v>126833000</v>
       </c>
       <c r="I61" s="3">
-        <v>112951000</v>
+        <v>115499000</v>
       </c>
       <c r="J61" s="3">
-        <v>99503200</v>
+        <v>101748000</v>
       </c>
       <c r="K61" s="3">
         <v>88391000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4102500</v>
+        <v>4195100</v>
       </c>
       <c r="E62" s="3">
-        <v>2435100</v>
+        <v>2490100</v>
       </c>
       <c r="F62" s="3">
-        <v>1493800</v>
+        <v>1527500</v>
       </c>
       <c r="G62" s="3">
-        <v>1282400</v>
+        <v>1311300</v>
       </c>
       <c r="H62" s="3">
-        <v>1317200</v>
+        <v>1347000</v>
       </c>
       <c r="I62" s="3">
-        <v>1315700</v>
+        <v>1345400</v>
       </c>
       <c r="J62" s="3">
-        <v>1506700</v>
+        <v>1540700</v>
       </c>
       <c r="K62" s="3">
         <v>1332700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>639609000</v>
+        <v>654040000</v>
       </c>
       <c r="E66" s="3">
-        <v>637524000</v>
+        <v>651908000</v>
       </c>
       <c r="F66" s="3">
-        <v>617742000</v>
+        <v>631680000</v>
       </c>
       <c r="G66" s="3">
-        <v>599186000</v>
+        <v>612705000</v>
       </c>
       <c r="H66" s="3">
-        <v>591982000</v>
+        <v>605339000</v>
       </c>
       <c r="I66" s="3">
-        <v>575290000</v>
+        <v>588270000</v>
       </c>
       <c r="J66" s="3">
-        <v>547496000</v>
+        <v>559849000</v>
       </c>
       <c r="K66" s="3">
         <v>473213000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21401600</v>
+        <v>21884500</v>
       </c>
       <c r="E72" s="3">
-        <v>21836600</v>
+        <v>22329300</v>
       </c>
       <c r="F72" s="3">
-        <v>22281500</v>
+        <v>22784200</v>
       </c>
       <c r="G72" s="3">
-        <v>20852100</v>
+        <v>21322600</v>
       </c>
       <c r="H72" s="3">
-        <v>19472700</v>
+        <v>19912100</v>
       </c>
       <c r="I72" s="3">
-        <v>18471500</v>
+        <v>18888300</v>
       </c>
       <c r="J72" s="3">
-        <v>16458600</v>
+        <v>16829900</v>
       </c>
       <c r="K72" s="3">
         <v>14370900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51554600</v>
+        <v>52717800</v>
       </c>
       <c r="E76" s="3">
-        <v>49607600</v>
+        <v>50726800</v>
       </c>
       <c r="F76" s="3">
-        <v>48900500</v>
+        <v>50003800</v>
       </c>
       <c r="G76" s="3">
-        <v>46450200</v>
+        <v>47498200</v>
       </c>
       <c r="H76" s="3">
-        <v>44049100</v>
+        <v>45043000</v>
       </c>
       <c r="I76" s="3">
-        <v>40243000</v>
+        <v>41151000</v>
       </c>
       <c r="J76" s="3">
-        <v>36724800</v>
+        <v>37553400</v>
       </c>
       <c r="K76" s="3">
         <v>33750000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1734100</v>
+        <v>1773200</v>
       </c>
       <c r="E81" s="3">
-        <v>5137000</v>
+        <v>5253000</v>
       </c>
       <c r="F81" s="3">
-        <v>6131400</v>
+        <v>6269800</v>
       </c>
       <c r="G81" s="3">
-        <v>6051100</v>
+        <v>6187600</v>
       </c>
       <c r="H81" s="3">
-        <v>5638800</v>
+        <v>5766000</v>
       </c>
       <c r="I81" s="3">
-        <v>6067700</v>
+        <v>6204700</v>
       </c>
       <c r="J81" s="3">
-        <v>5722900</v>
+        <v>5852000</v>
       </c>
       <c r="K81" s="3">
         <v>4873000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1874300</v>
+        <v>1916600</v>
       </c>
       <c r="E83" s="3">
-        <v>817800</v>
+        <v>836200</v>
       </c>
       <c r="F83" s="3">
-        <v>867000</v>
+        <v>886600</v>
       </c>
       <c r="G83" s="3">
-        <v>961800</v>
+        <v>983500</v>
       </c>
       <c r="H83" s="3">
-        <v>915500</v>
+        <v>936200</v>
       </c>
       <c r="I83" s="3">
-        <v>1266500</v>
+        <v>1295000</v>
       </c>
       <c r="J83" s="3">
-        <v>773100</v>
+        <v>790500</v>
       </c>
       <c r="K83" s="3">
         <v>653700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44451600</v>
+        <v>45454500</v>
       </c>
       <c r="E89" s="3">
-        <v>5384100</v>
+        <v>5505600</v>
       </c>
       <c r="F89" s="3">
-        <v>14983700</v>
+        <v>15321800</v>
       </c>
       <c r="G89" s="3">
-        <v>2150200</v>
+        <v>2198700</v>
       </c>
       <c r="H89" s="3">
-        <v>4166200</v>
+        <v>4260200</v>
       </c>
       <c r="I89" s="3">
-        <v>-410000</v>
+        <v>-419300</v>
       </c>
       <c r="J89" s="3">
-        <v>21502400</v>
+        <v>21987500</v>
       </c>
       <c r="K89" s="3">
         <v>18496900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-181900</v>
+        <v>-186000</v>
       </c>
       <c r="E91" s="3">
-        <v>-212200</v>
+        <v>-217000</v>
       </c>
       <c r="F91" s="3">
-        <v>-234900</v>
+        <v>-240300</v>
       </c>
       <c r="G91" s="3">
-        <v>-200100</v>
+        <v>-204600</v>
       </c>
       <c r="H91" s="3">
-        <v>-394900</v>
+        <v>-403800</v>
       </c>
       <c r="I91" s="3">
-        <v>-513100</v>
+        <v>-524700</v>
       </c>
       <c r="J91" s="3">
-        <v>-390300</v>
+        <v>-399100</v>
       </c>
       <c r="K91" s="3">
         <v>-219800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14761600</v>
+        <v>-15094700</v>
       </c>
       <c r="E94" s="3">
-        <v>-8161800</v>
+        <v>-8346000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1227800</v>
+        <v>-1255500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1286900</v>
+        <v>-1316000</v>
       </c>
       <c r="H94" s="3">
-        <v>-5491000</v>
+        <v>-5614900</v>
       </c>
       <c r="I94" s="3">
-        <v>-14184100</v>
+        <v>-14504100</v>
       </c>
       <c r="J94" s="3">
-        <v>-11050900</v>
+        <v>-11300300</v>
       </c>
       <c r="K94" s="3">
         <v>-5635800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1908400</v>
+        <v>-1951500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3772100</v>
+        <v>-3857200</v>
       </c>
       <c r="F96" s="3">
-        <v>-4372300</v>
+        <v>-4471000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3667500</v>
+        <v>-3750200</v>
       </c>
       <c r="H96" s="3">
-        <v>-4094200</v>
+        <v>-4186600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3289300</v>
+        <v>-3363500</v>
       </c>
       <c r="J96" s="3">
-        <v>-4423900</v>
+        <v>-4523700</v>
       </c>
       <c r="K96" s="3">
         <v>-3635700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21829800</v>
+        <v>-22322300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2753500</v>
+        <v>-2815600</v>
       </c>
       <c r="F100" s="3">
-        <v>-8406600</v>
+        <v>-8596300</v>
       </c>
       <c r="G100" s="3">
-        <v>418400</v>
+        <v>427800</v>
       </c>
       <c r="H100" s="3">
-        <v>3465900</v>
+        <v>3544100</v>
       </c>
       <c r="I100" s="3">
-        <v>4178300</v>
+        <v>4272600</v>
       </c>
       <c r="J100" s="3">
-        <v>-732100</v>
+        <v>-748700</v>
       </c>
       <c r="K100" s="3">
         <v>-14668100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-228100</v>
+        <v>-233300</v>
       </c>
       <c r="E101" s="3">
-        <v>431200</v>
+        <v>441000</v>
       </c>
       <c r="F101" s="3">
-        <v>715500</v>
+        <v>731600</v>
       </c>
       <c r="G101" s="3">
-        <v>-228900</v>
+        <v>-234100</v>
       </c>
       <c r="H101" s="3">
-        <v>-439600</v>
+        <v>-449500</v>
       </c>
       <c r="I101" s="3">
-        <v>2086500</v>
+        <v>2133600</v>
       </c>
       <c r="J101" s="3">
-        <v>937500</v>
+        <v>958700</v>
       </c>
       <c r="K101" s="3">
         <v>1211200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7632100</v>
+        <v>7804300</v>
       </c>
       <c r="E102" s="3">
-        <v>-5099900</v>
+        <v>-5215000</v>
       </c>
       <c r="F102" s="3">
-        <v>6064700</v>
+        <v>6201600</v>
       </c>
       <c r="G102" s="3">
-        <v>1052700</v>
+        <v>1076500</v>
       </c>
       <c r="H102" s="3">
-        <v>1701500</v>
+        <v>1739900</v>
       </c>
       <c r="I102" s="3">
-        <v>-8329300</v>
+        <v>-8517300</v>
       </c>
       <c r="J102" s="3">
-        <v>10656800</v>
+        <v>10897300</v>
       </c>
       <c r="K102" s="3">
         <v>-595800</v>

--- a/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20961400</v>
+        <v>19327800</v>
       </c>
       <c r="E8" s="3">
-        <v>25747100</v>
+        <v>23740400</v>
       </c>
       <c r="F8" s="3">
-        <v>25242500</v>
+        <v>23275200</v>
       </c>
       <c r="G8" s="3">
-        <v>24204800</v>
+        <v>22318400</v>
       </c>
       <c r="H8" s="3">
-        <v>24662100</v>
+        <v>22740000</v>
       </c>
       <c r="I8" s="3">
-        <v>25028600</v>
+        <v>23078000</v>
       </c>
       <c r="J8" s="3">
-        <v>24992200</v>
+        <v>23044400</v>
       </c>
       <c r="K8" s="3">
         <v>23868800</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1784100</v>
+        <v>-1645000</v>
       </c>
       <c r="E15" s="3">
-        <v>-816900</v>
+        <v>-753200</v>
       </c>
       <c r="F15" s="3">
-        <v>-885100</v>
+        <v>-816100</v>
       </c>
       <c r="G15" s="3">
-        <v>-1459300</v>
+        <v>-1345600</v>
       </c>
       <c r="H15" s="3">
-        <v>-951700</v>
+        <v>-877500</v>
       </c>
       <c r="I15" s="3">
-        <v>-1295000</v>
+        <v>-1194100</v>
       </c>
       <c r="J15" s="3">
-        <v>-790500</v>
+        <v>-728900</v>
       </c>
       <c r="K15" s="3">
         <v>-653700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8637400</v>
+        <v>7964200</v>
       </c>
       <c r="E17" s="3">
-        <v>13259500</v>
+        <v>12226100</v>
       </c>
       <c r="F17" s="3">
-        <v>13001400</v>
+        <v>11988100</v>
       </c>
       <c r="G17" s="3">
-        <v>12841000</v>
+        <v>11840200</v>
       </c>
       <c r="H17" s="3">
-        <v>13793500</v>
+        <v>12718500</v>
       </c>
       <c r="I17" s="3">
-        <v>14555300</v>
+        <v>13420900</v>
       </c>
       <c r="J17" s="3">
-        <v>15000900</v>
+        <v>13831800</v>
       </c>
       <c r="K17" s="3">
         <v>15210400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12324100</v>
+        <v>11363600</v>
       </c>
       <c r="E18" s="3">
-        <v>12487600</v>
+        <v>11514300</v>
       </c>
       <c r="F18" s="3">
-        <v>12241100</v>
+        <v>11287100</v>
       </c>
       <c r="G18" s="3">
-        <v>11363800</v>
+        <v>10478200</v>
       </c>
       <c r="H18" s="3">
-        <v>10868600</v>
+        <v>10021600</v>
       </c>
       <c r="I18" s="3">
-        <v>10473400</v>
+        <v>9657100</v>
       </c>
       <c r="J18" s="3">
-        <v>9991300</v>
+        <v>9212600</v>
       </c>
       <c r="K18" s="3">
         <v>8658400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9017900</v>
+        <v>-8315100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4932100</v>
+        <v>-4547700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3149600</v>
+        <v>-2904100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2439700</v>
+        <v>-2249600</v>
       </c>
       <c r="H20" s="3">
-        <v>-2619500</v>
+        <v>-2415300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1626000</v>
+        <v>-1499200</v>
       </c>
       <c r="J20" s="3">
-        <v>-1667800</v>
+        <v>-1537800</v>
       </c>
       <c r="K20" s="3">
         <v>-1592300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5223200</v>
+        <v>4836700</v>
       </c>
       <c r="E21" s="3">
-        <v>8391900</v>
+        <v>7746900</v>
       </c>
       <c r="F21" s="3">
-        <v>9978400</v>
+        <v>9210200</v>
       </c>
       <c r="G21" s="3">
-        <v>9907900</v>
+        <v>9146200</v>
       </c>
       <c r="H21" s="3">
-        <v>9185500</v>
+        <v>8479700</v>
       </c>
       <c r="I21" s="3">
-        <v>10142800</v>
+        <v>9366200</v>
       </c>
       <c r="J21" s="3">
-        <v>9114200</v>
+        <v>8412400</v>
       </c>
       <c r="K21" s="3">
         <v>7716500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3306200</v>
+        <v>3048500</v>
       </c>
       <c r="E23" s="3">
-        <v>7555500</v>
+        <v>6966600</v>
       </c>
       <c r="F23" s="3">
-        <v>9091500</v>
+        <v>8383000</v>
       </c>
       <c r="G23" s="3">
-        <v>8924100</v>
+        <v>8228600</v>
       </c>
       <c r="H23" s="3">
-        <v>8249100</v>
+        <v>7606200</v>
       </c>
       <c r="I23" s="3">
-        <v>8847400</v>
+        <v>8157900</v>
       </c>
       <c r="J23" s="3">
-        <v>8323500</v>
+        <v>7674800</v>
       </c>
       <c r="K23" s="3">
         <v>7066100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1529900</v>
+        <v>1410600</v>
       </c>
       <c r="E24" s="3">
-        <v>2293200</v>
+        <v>2114500</v>
       </c>
       <c r="F24" s="3">
-        <v>2814800</v>
+        <v>2595400</v>
       </c>
       <c r="G24" s="3">
-        <v>2726500</v>
+        <v>2514000</v>
       </c>
       <c r="H24" s="3">
-        <v>2467600</v>
+        <v>2275300</v>
       </c>
       <c r="I24" s="3">
-        <v>2594700</v>
+        <v>2392500</v>
       </c>
       <c r="J24" s="3">
-        <v>2414100</v>
+        <v>2226000</v>
       </c>
       <c r="K24" s="3">
         <v>2131000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1776300</v>
+        <v>1637900</v>
       </c>
       <c r="E26" s="3">
-        <v>5262300</v>
+        <v>4852100</v>
       </c>
       <c r="F26" s="3">
-        <v>6276700</v>
+        <v>5787500</v>
       </c>
       <c r="G26" s="3">
-        <v>6197700</v>
+        <v>5714700</v>
       </c>
       <c r="H26" s="3">
-        <v>5781500</v>
+        <v>5330900</v>
       </c>
       <c r="I26" s="3">
-        <v>6252700</v>
+        <v>5765400</v>
       </c>
       <c r="J26" s="3">
-        <v>5909400</v>
+        <v>5448800</v>
       </c>
       <c r="K26" s="3">
         <v>4935200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1773200</v>
+        <v>1635000</v>
       </c>
       <c r="E27" s="3">
-        <v>5253000</v>
+        <v>4843600</v>
       </c>
       <c r="F27" s="3">
-        <v>6269800</v>
+        <v>5781100</v>
       </c>
       <c r="G27" s="3">
-        <v>6187600</v>
+        <v>5705400</v>
       </c>
       <c r="H27" s="3">
-        <v>5766000</v>
+        <v>5316600</v>
       </c>
       <c r="I27" s="3">
-        <v>6204700</v>
+        <v>5721100</v>
       </c>
       <c r="J27" s="3">
-        <v>5852000</v>
+        <v>5395900</v>
       </c>
       <c r="K27" s="3">
         <v>4873000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9017900</v>
+        <v>8315100</v>
       </c>
       <c r="E32" s="3">
-        <v>4932100</v>
+        <v>4547700</v>
       </c>
       <c r="F32" s="3">
-        <v>3149600</v>
+        <v>2904100</v>
       </c>
       <c r="G32" s="3">
-        <v>2439700</v>
+        <v>2249600</v>
       </c>
       <c r="H32" s="3">
-        <v>2619500</v>
+        <v>2415300</v>
       </c>
       <c r="I32" s="3">
-        <v>1626000</v>
+        <v>1499200</v>
       </c>
       <c r="J32" s="3">
-        <v>1667800</v>
+        <v>1537800</v>
       </c>
       <c r="K32" s="3">
         <v>1592300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1773200</v>
+        <v>1635000</v>
       </c>
       <c r="E33" s="3">
-        <v>5253000</v>
+        <v>4843600</v>
       </c>
       <c r="F33" s="3">
-        <v>6269800</v>
+        <v>5781100</v>
       </c>
       <c r="G33" s="3">
-        <v>6187600</v>
+        <v>5705400</v>
       </c>
       <c r="H33" s="3">
-        <v>5766000</v>
+        <v>5316600</v>
       </c>
       <c r="I33" s="3">
-        <v>6204700</v>
+        <v>5721100</v>
       </c>
       <c r="J33" s="3">
-        <v>5852000</v>
+        <v>5395900</v>
       </c>
       <c r="K33" s="3">
         <v>4873000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1773200</v>
+        <v>1635000</v>
       </c>
       <c r="E35" s="3">
-        <v>5253000</v>
+        <v>4843600</v>
       </c>
       <c r="F35" s="3">
-        <v>6269800</v>
+        <v>5781100</v>
       </c>
       <c r="G35" s="3">
-        <v>6187600</v>
+        <v>5705400</v>
       </c>
       <c r="H35" s="3">
-        <v>5766000</v>
+        <v>5316600</v>
       </c>
       <c r="I35" s="3">
-        <v>6204700</v>
+        <v>5721100</v>
       </c>
       <c r="J35" s="3">
-        <v>5852000</v>
+        <v>5395900</v>
       </c>
       <c r="K35" s="3">
         <v>4873000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23581700</v>
+        <v>21743800</v>
       </c>
       <c r="E41" s="3">
-        <v>15944100</v>
+        <v>14701500</v>
       </c>
       <c r="F41" s="3">
-        <v>21614000</v>
+        <v>19929500</v>
       </c>
       <c r="G41" s="3">
-        <v>30293200</v>
+        <v>27932300</v>
       </c>
       <c r="H41" s="3">
-        <v>15374500</v>
+        <v>14176200</v>
       </c>
       <c r="I41" s="3">
-        <v>12982000</v>
+        <v>11970300</v>
       </c>
       <c r="J41" s="3">
-        <v>28633900</v>
+        <v>26402300</v>
       </c>
       <c r="K41" s="3">
         <v>28090300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41868600</v>
+        <v>38605600</v>
       </c>
       <c r="E42" s="3">
-        <v>37042700</v>
+        <v>34155700</v>
       </c>
       <c r="F42" s="3">
-        <v>40239600</v>
+        <v>37103500</v>
       </c>
       <c r="G42" s="3">
-        <v>42810200</v>
+        <v>39473800</v>
       </c>
       <c r="H42" s="3">
-        <v>47982600</v>
+        <v>44243000</v>
       </c>
       <c r="I42" s="3">
-        <v>65517000</v>
+        <v>60410900</v>
       </c>
       <c r="J42" s="3">
-        <v>69956900</v>
+        <v>64504800</v>
       </c>
       <c r="K42" s="3">
         <v>91608100</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47300</v>
+        <v>43600</v>
       </c>
       <c r="E47" s="3">
-        <v>100000</v>
+        <v>92200</v>
       </c>
       <c r="F47" s="3">
-        <v>89100</v>
+        <v>82200</v>
       </c>
       <c r="G47" s="3">
-        <v>46500</v>
+        <v>42900</v>
       </c>
       <c r="H47" s="3">
-        <v>562600</v>
+        <v>518800</v>
       </c>
       <c r="I47" s="3">
-        <v>585900</v>
+        <v>540200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3030300</v>
+        <v>2794100</v>
       </c>
       <c r="E48" s="3">
-        <v>895100</v>
+        <v>825400</v>
       </c>
       <c r="F48" s="3">
-        <v>1030000</v>
+        <v>949700</v>
       </c>
       <c r="G48" s="3">
-        <v>1152400</v>
+        <v>1062600</v>
       </c>
       <c r="H48" s="3">
-        <v>1346200</v>
+        <v>1241300</v>
       </c>
       <c r="I48" s="3">
-        <v>1233800</v>
+        <v>1137600</v>
       </c>
       <c r="J48" s="3">
-        <v>1125300</v>
+        <v>1037600</v>
       </c>
       <c r="K48" s="3">
         <v>1697800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8910200</v>
+        <v>8215800</v>
       </c>
       <c r="E49" s="3">
-        <v>9263600</v>
+        <v>8541600</v>
       </c>
       <c r="F49" s="3">
-        <v>9116300</v>
+        <v>8405800</v>
       </c>
       <c r="G49" s="3">
-        <v>9030300</v>
+        <v>8326500</v>
       </c>
       <c r="H49" s="3">
-        <v>8928000</v>
+        <v>8232200</v>
       </c>
       <c r="I49" s="3">
-        <v>8969900</v>
+        <v>8270800</v>
       </c>
       <c r="J49" s="3">
-        <v>9769600</v>
+        <v>9008200</v>
       </c>
       <c r="K49" s="3">
         <v>17847600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2374600</v>
+        <v>2189500</v>
       </c>
       <c r="E52" s="3">
-        <v>1587200</v>
+        <v>1463500</v>
       </c>
       <c r="F52" s="3">
-        <v>914500</v>
+        <v>843200</v>
       </c>
       <c r="G52" s="3">
-        <v>861800</v>
+        <v>794600</v>
       </c>
       <c r="H52" s="3">
-        <v>1202800</v>
+        <v>1109100</v>
       </c>
       <c r="I52" s="3">
-        <v>1067200</v>
+        <v>984000</v>
       </c>
       <c r="J52" s="3">
-        <v>1082700</v>
+        <v>998300</v>
       </c>
       <c r="K52" s="3">
         <v>1282100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>706758000</v>
+        <v>651677000</v>
       </c>
       <c r="E54" s="3">
-        <v>702635000</v>
+        <v>647875000</v>
       </c>
       <c r="F54" s="3">
-        <v>681684000</v>
+        <v>628556000</v>
       </c>
       <c r="G54" s="3">
-        <v>660203000</v>
+        <v>608750000</v>
       </c>
       <c r="H54" s="3">
-        <v>650382000</v>
+        <v>599694000</v>
       </c>
       <c r="I54" s="3">
-        <v>629421000</v>
+        <v>580367000</v>
       </c>
       <c r="J54" s="3">
-        <v>597403000</v>
+        <v>550844000</v>
       </c>
       <c r="K54" s="3">
         <v>506963000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>968800</v>
+        <v>893300</v>
       </c>
       <c r="E57" s="3">
-        <v>894400</v>
+        <v>824600</v>
       </c>
       <c r="F57" s="3">
-        <v>1092800</v>
+        <v>1007600</v>
       </c>
       <c r="G57" s="3">
-        <v>859500</v>
+        <v>792500</v>
       </c>
       <c r="H57" s="3">
-        <v>871100</v>
+        <v>803200</v>
       </c>
       <c r="I57" s="3">
-        <v>988900</v>
+        <v>911800</v>
       </c>
       <c r="J57" s="3">
-        <v>798300</v>
+        <v>736000</v>
       </c>
       <c r="K57" s="3">
         <v>736800</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38830600</v>
+        <v>35804300</v>
       </c>
       <c r="E58" s="3">
-        <v>31873400</v>
+        <v>29389400</v>
       </c>
       <c r="F58" s="3">
-        <v>24152900</v>
+        <v>22270500</v>
       </c>
       <c r="G58" s="3">
-        <v>28744800</v>
+        <v>26504500</v>
       </c>
       <c r="H58" s="3">
-        <v>20462300</v>
+        <v>18867600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1113700</v>
+        <v>1026900</v>
       </c>
       <c r="E59" s="3">
-        <v>2162300</v>
+        <v>1993700</v>
       </c>
       <c r="F59" s="3">
-        <v>2529600</v>
+        <v>2332500</v>
       </c>
       <c r="G59" s="3">
-        <v>2352100</v>
+        <v>2168800</v>
       </c>
       <c r="H59" s="3">
-        <v>2297100</v>
+        <v>2118100</v>
       </c>
       <c r="I59" s="3">
-        <v>2452900</v>
+        <v>2261700</v>
       </c>
       <c r="J59" s="3">
-        <v>2773700</v>
+        <v>2557600</v>
       </c>
       <c r="K59" s="3">
         <v>2794800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>121267000</v>
+        <v>111816000</v>
       </c>
       <c r="E61" s="3">
-        <v>137520000</v>
+        <v>126802000</v>
       </c>
       <c r="F61" s="3">
-        <v>125715000</v>
+        <v>115917000</v>
       </c>
       <c r="G61" s="3">
-        <v>118164000</v>
+        <v>108954000</v>
       </c>
       <c r="H61" s="3">
-        <v>126833000</v>
+        <v>116948000</v>
       </c>
       <c r="I61" s="3">
-        <v>115499000</v>
+        <v>106498000</v>
       </c>
       <c r="J61" s="3">
-        <v>101748000</v>
+        <v>93818400</v>
       </c>
       <c r="K61" s="3">
         <v>88391000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4195100</v>
+        <v>3868100</v>
       </c>
       <c r="E62" s="3">
-        <v>2490100</v>
+        <v>2296000</v>
       </c>
       <c r="F62" s="3">
-        <v>1527500</v>
+        <v>1408500</v>
       </c>
       <c r="G62" s="3">
-        <v>1311300</v>
+        <v>1209100</v>
       </c>
       <c r="H62" s="3">
-        <v>1347000</v>
+        <v>1242000</v>
       </c>
       <c r="I62" s="3">
-        <v>1345400</v>
+        <v>1240500</v>
       </c>
       <c r="J62" s="3">
-        <v>1540700</v>
+        <v>1420600</v>
       </c>
       <c r="K62" s="3">
         <v>1332700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>654040000</v>
+        <v>603067000</v>
       </c>
       <c r="E66" s="3">
-        <v>651908000</v>
+        <v>601102000</v>
       </c>
       <c r="F66" s="3">
-        <v>631680000</v>
+        <v>582450000</v>
       </c>
       <c r="G66" s="3">
-        <v>612705000</v>
+        <v>564954000</v>
       </c>
       <c r="H66" s="3">
-        <v>605339000</v>
+        <v>558161000</v>
       </c>
       <c r="I66" s="3">
-        <v>588270000</v>
+        <v>542423000</v>
       </c>
       <c r="J66" s="3">
-        <v>559849000</v>
+        <v>516217000</v>
       </c>
       <c r="K66" s="3">
         <v>473213000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21884500</v>
+        <v>20178900</v>
       </c>
       <c r="E72" s="3">
-        <v>22329300</v>
+        <v>20589100</v>
       </c>
       <c r="F72" s="3">
-        <v>22784200</v>
+        <v>21008500</v>
       </c>
       <c r="G72" s="3">
-        <v>21322600</v>
+        <v>19660800</v>
       </c>
       <c r="H72" s="3">
-        <v>19912100</v>
+        <v>18360200</v>
       </c>
       <c r="I72" s="3">
-        <v>18888300</v>
+        <v>17416200</v>
       </c>
       <c r="J72" s="3">
-        <v>16829900</v>
+        <v>15518300</v>
       </c>
       <c r="K72" s="3">
         <v>14370900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52717800</v>
+        <v>48609200</v>
       </c>
       <c r="E76" s="3">
-        <v>50726800</v>
+        <v>46773400</v>
       </c>
       <c r="F76" s="3">
-        <v>50003800</v>
+        <v>46106700</v>
       </c>
       <c r="G76" s="3">
-        <v>47498200</v>
+        <v>43796400</v>
       </c>
       <c r="H76" s="3">
-        <v>45043000</v>
+        <v>41532600</v>
       </c>
       <c r="I76" s="3">
-        <v>41151000</v>
+        <v>37943800</v>
       </c>
       <c r="J76" s="3">
-        <v>37553400</v>
+        <v>34626700</v>
       </c>
       <c r="K76" s="3">
         <v>33750000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1773200</v>
+        <v>1635000</v>
       </c>
       <c r="E81" s="3">
-        <v>5253000</v>
+        <v>4843600</v>
       </c>
       <c r="F81" s="3">
-        <v>6269800</v>
+        <v>5781100</v>
       </c>
       <c r="G81" s="3">
-        <v>6187600</v>
+        <v>5705400</v>
       </c>
       <c r="H81" s="3">
-        <v>5766000</v>
+        <v>5316600</v>
       </c>
       <c r="I81" s="3">
-        <v>6204700</v>
+        <v>5721100</v>
       </c>
       <c r="J81" s="3">
-        <v>5852000</v>
+        <v>5395900</v>
       </c>
       <c r="K81" s="3">
         <v>4873000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1916600</v>
+        <v>1767200</v>
       </c>
       <c r="E83" s="3">
-        <v>836200</v>
+        <v>771100</v>
       </c>
       <c r="F83" s="3">
-        <v>886600</v>
+        <v>817500</v>
       </c>
       <c r="G83" s="3">
-        <v>983500</v>
+        <v>906800</v>
       </c>
       <c r="H83" s="3">
-        <v>936200</v>
+        <v>863200</v>
       </c>
       <c r="I83" s="3">
-        <v>1295000</v>
+        <v>1194100</v>
       </c>
       <c r="J83" s="3">
-        <v>790500</v>
+        <v>728900</v>
       </c>
       <c r="K83" s="3">
         <v>653700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45454500</v>
+        <v>41912000</v>
       </c>
       <c r="E89" s="3">
-        <v>5505600</v>
+        <v>5076500</v>
       </c>
       <c r="F89" s="3">
-        <v>15321800</v>
+        <v>14127600</v>
       </c>
       <c r="G89" s="3">
-        <v>2198700</v>
+        <v>2027300</v>
       </c>
       <c r="H89" s="3">
-        <v>4260200</v>
+        <v>3928200</v>
       </c>
       <c r="I89" s="3">
-        <v>-419300</v>
+        <v>-386600</v>
       </c>
       <c r="J89" s="3">
-        <v>21987500</v>
+        <v>20273900</v>
       </c>
       <c r="K89" s="3">
         <v>18496900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-186000</v>
+        <v>-171500</v>
       </c>
       <c r="E91" s="3">
-        <v>-217000</v>
+        <v>-200100</v>
       </c>
       <c r="F91" s="3">
-        <v>-240300</v>
+        <v>-221500</v>
       </c>
       <c r="G91" s="3">
-        <v>-204600</v>
+        <v>-188700</v>
       </c>
       <c r="H91" s="3">
-        <v>-403800</v>
+        <v>-372300</v>
       </c>
       <c r="I91" s="3">
-        <v>-524700</v>
+        <v>-483800</v>
       </c>
       <c r="J91" s="3">
-        <v>-399100</v>
+        <v>-368000</v>
       </c>
       <c r="K91" s="3">
         <v>-219800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15094700</v>
+        <v>-13918300</v>
       </c>
       <c r="E94" s="3">
-        <v>-8346000</v>
+        <v>-7695500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1255500</v>
+        <v>-1157700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1316000</v>
+        <v>-1213400</v>
       </c>
       <c r="H94" s="3">
-        <v>-5614900</v>
+        <v>-5177300</v>
       </c>
       <c r="I94" s="3">
-        <v>-14504100</v>
+        <v>-13373700</v>
       </c>
       <c r="J94" s="3">
-        <v>-11300300</v>
+        <v>-10419600</v>
       </c>
       <c r="K94" s="3">
         <v>-5635800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1951500</v>
+        <v>-1799400</v>
       </c>
       <c r="E96" s="3">
-        <v>-3857200</v>
+        <v>-3556600</v>
       </c>
       <c r="F96" s="3">
-        <v>-4471000</v>
+        <v>-4122500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3750200</v>
+        <v>-3457900</v>
       </c>
       <c r="H96" s="3">
-        <v>-4186600</v>
+        <v>-3860300</v>
       </c>
       <c r="I96" s="3">
-        <v>-3363500</v>
+        <v>-3101400</v>
       </c>
       <c r="J96" s="3">
-        <v>-4523700</v>
+        <v>-4171100</v>
       </c>
       <c r="K96" s="3">
         <v>-3635700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22322300</v>
+        <v>-20582600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2815600</v>
+        <v>-2596100</v>
       </c>
       <c r="F100" s="3">
-        <v>-8596300</v>
+        <v>-7926300</v>
       </c>
       <c r="G100" s="3">
-        <v>427800</v>
+        <v>394500</v>
       </c>
       <c r="H100" s="3">
-        <v>3544100</v>
+        <v>3267900</v>
       </c>
       <c r="I100" s="3">
-        <v>4272600</v>
+        <v>3939600</v>
       </c>
       <c r="J100" s="3">
-        <v>-748700</v>
+        <v>-690300</v>
       </c>
       <c r="K100" s="3">
         <v>-14668100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-233300</v>
+        <v>-215100</v>
       </c>
       <c r="E101" s="3">
-        <v>441000</v>
+        <v>406600</v>
       </c>
       <c r="F101" s="3">
-        <v>731600</v>
+        <v>674600</v>
       </c>
       <c r="G101" s="3">
-        <v>-234100</v>
+        <v>-215800</v>
       </c>
       <c r="H101" s="3">
-        <v>-449500</v>
+        <v>-414500</v>
       </c>
       <c r="I101" s="3">
-        <v>2133600</v>
+        <v>1967300</v>
       </c>
       <c r="J101" s="3">
-        <v>958700</v>
+        <v>884000</v>
       </c>
       <c r="K101" s="3">
         <v>1211200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7804300</v>
+        <v>7196000</v>
       </c>
       <c r="E102" s="3">
-        <v>-5215000</v>
+        <v>-4808500</v>
       </c>
       <c r="F102" s="3">
-        <v>6201600</v>
+        <v>5718200</v>
       </c>
       <c r="G102" s="3">
-        <v>1076500</v>
+        <v>992600</v>
       </c>
       <c r="H102" s="3">
-        <v>1739900</v>
+        <v>1604300</v>
       </c>
       <c r="I102" s="3">
-        <v>-8517300</v>
+        <v>-7853500</v>
       </c>
       <c r="J102" s="3">
-        <v>10897300</v>
+        <v>10048000</v>
       </c>
       <c r="K102" s="3">
         <v>-595800</v>

--- a/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>WBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40816</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19327800</v>
+        <v>15906500</v>
       </c>
       <c r="E8" s="3">
-        <v>23740400</v>
+        <v>19311600</v>
       </c>
       <c r="F8" s="3">
-        <v>23275200</v>
+        <v>23720500</v>
       </c>
       <c r="G8" s="3">
-        <v>22318400</v>
+        <v>23255700</v>
       </c>
       <c r="H8" s="3">
-        <v>22740000</v>
+        <v>22299600</v>
       </c>
       <c r="I8" s="3">
-        <v>23078000</v>
+        <v>22720900</v>
       </c>
       <c r="J8" s="3">
+        <v>23058600</v>
+      </c>
+      <c r="K8" s="3">
         <v>23044400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23868800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26087600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27643900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1645000</v>
+        <v>-1198100</v>
       </c>
       <c r="E15" s="3">
-        <v>-753200</v>
+        <v>-1273800</v>
       </c>
       <c r="F15" s="3">
-        <v>-816100</v>
+        <v>-752600</v>
       </c>
       <c r="G15" s="3">
-        <v>-1345600</v>
+        <v>-815400</v>
       </c>
       <c r="H15" s="3">
-        <v>-877500</v>
+        <v>-1344500</v>
       </c>
       <c r="I15" s="3">
-        <v>-1194100</v>
+        <v>-876800</v>
       </c>
       <c r="J15" s="3">
+        <v>-1193100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-728900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-653700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-437900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-520300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7964200</v>
+        <v>3448600</v>
       </c>
       <c r="E17" s="3">
-        <v>12226100</v>
+        <v>7957500</v>
       </c>
       <c r="F17" s="3">
-        <v>11988100</v>
+        <v>12215800</v>
       </c>
       <c r="G17" s="3">
-        <v>11840200</v>
+        <v>11978100</v>
       </c>
       <c r="H17" s="3">
-        <v>12718500</v>
+        <v>11830300</v>
       </c>
       <c r="I17" s="3">
-        <v>13420900</v>
+        <v>12707800</v>
       </c>
       <c r="J17" s="3">
+        <v>13409600</v>
+      </c>
+      <c r="K17" s="3">
         <v>13831800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15210400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18100000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19660100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11363600</v>
+        <v>12457900</v>
       </c>
       <c r="E18" s="3">
-        <v>11514300</v>
+        <v>11354000</v>
       </c>
       <c r="F18" s="3">
-        <v>11287100</v>
+        <v>11504700</v>
       </c>
       <c r="G18" s="3">
-        <v>10478200</v>
+        <v>11277600</v>
       </c>
       <c r="H18" s="3">
-        <v>10021600</v>
+        <v>10469400</v>
       </c>
       <c r="I18" s="3">
-        <v>9657100</v>
+        <v>10013100</v>
       </c>
       <c r="J18" s="3">
+        <v>9649000</v>
+      </c>
+      <c r="K18" s="3">
         <v>9212600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8658400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7987700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7983800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8315100</v>
+        <v>-6388200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4547700</v>
+        <v>-8308100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2904100</v>
+        <v>-4543900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2249600</v>
+        <v>-2901700</v>
       </c>
       <c r="H20" s="3">
-        <v>-2415300</v>
+        <v>-2247700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1499200</v>
+        <v>-2413300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1498000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1537800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1592300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1751800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1806000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4836700</v>
+        <v>8245100</v>
       </c>
       <c r="E21" s="3">
-        <v>7746900</v>
+        <v>4807400</v>
       </c>
       <c r="F21" s="3">
-        <v>9210200</v>
+        <v>7729400</v>
       </c>
       <c r="G21" s="3">
-        <v>9146200</v>
+        <v>9190800</v>
       </c>
       <c r="H21" s="3">
-        <v>8479700</v>
+        <v>9125600</v>
       </c>
       <c r="I21" s="3">
-        <v>9366200</v>
+        <v>8460300</v>
       </c>
       <c r="J21" s="3">
+        <v>9341300</v>
+      </c>
+      <c r="K21" s="3">
         <v>8412400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7716500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6838000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6700600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3048500</v>
+        <v>6069700</v>
       </c>
       <c r="E23" s="3">
-        <v>6966600</v>
+        <v>3045900</v>
       </c>
       <c r="F23" s="3">
-        <v>8383000</v>
+        <v>6960800</v>
       </c>
       <c r="G23" s="3">
-        <v>8228600</v>
+        <v>8375900</v>
       </c>
       <c r="H23" s="3">
-        <v>7606200</v>
+        <v>8221700</v>
       </c>
       <c r="I23" s="3">
-        <v>8157900</v>
+        <v>7599800</v>
       </c>
       <c r="J23" s="3">
+        <v>8151000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7674800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7066100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6235900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6177800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1410600</v>
+        <v>2169100</v>
       </c>
       <c r="E24" s="3">
-        <v>2114500</v>
+        <v>1409400</v>
       </c>
       <c r="F24" s="3">
-        <v>2595400</v>
+        <v>2112700</v>
       </c>
       <c r="G24" s="3">
-        <v>2514000</v>
+        <v>2593200</v>
       </c>
       <c r="H24" s="3">
-        <v>2275300</v>
+        <v>2511900</v>
       </c>
       <c r="I24" s="3">
-        <v>2392500</v>
+        <v>2273400</v>
       </c>
       <c r="J24" s="3">
+        <v>2390500</v>
+      </c>
+      <c r="K24" s="3">
         <v>2226000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2131000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1989500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1055700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1637900</v>
+        <v>3900600</v>
       </c>
       <c r="E26" s="3">
-        <v>4852100</v>
+        <v>1636500</v>
       </c>
       <c r="F26" s="3">
-        <v>5787500</v>
+        <v>4848100</v>
       </c>
       <c r="G26" s="3">
-        <v>5714700</v>
+        <v>5782700</v>
       </c>
       <c r="H26" s="3">
-        <v>5330900</v>
+        <v>5709900</v>
       </c>
       <c r="I26" s="3">
-        <v>5765400</v>
+        <v>5326400</v>
       </c>
       <c r="J26" s="3">
+        <v>5760600</v>
+      </c>
+      <c r="K26" s="3">
         <v>5448800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4935200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4246400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5122000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1635000</v>
+        <v>3895600</v>
       </c>
       <c r="E27" s="3">
-        <v>4843600</v>
+        <v>1633600</v>
       </c>
       <c r="F27" s="3">
-        <v>5781100</v>
+        <v>4839500</v>
       </c>
       <c r="G27" s="3">
-        <v>5705400</v>
+        <v>5776300</v>
       </c>
       <c r="H27" s="3">
-        <v>5316600</v>
+        <v>5700600</v>
       </c>
       <c r="I27" s="3">
-        <v>5721100</v>
+        <v>5312200</v>
       </c>
       <c r="J27" s="3">
+        <v>5716300</v>
+      </c>
+      <c r="K27" s="3">
         <v>5395900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4873000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4191900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5066900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8315100</v>
+        <v>6388200</v>
       </c>
       <c r="E32" s="3">
-        <v>4547700</v>
+        <v>8308100</v>
       </c>
       <c r="F32" s="3">
-        <v>2904100</v>
+        <v>4543900</v>
       </c>
       <c r="G32" s="3">
-        <v>2249600</v>
+        <v>2901700</v>
       </c>
       <c r="H32" s="3">
-        <v>2415300</v>
+        <v>2247700</v>
       </c>
       <c r="I32" s="3">
-        <v>1499200</v>
+        <v>2413300</v>
       </c>
       <c r="J32" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="K32" s="3">
         <v>1537800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1592300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1751800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1806000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1635000</v>
+        <v>3895600</v>
       </c>
       <c r="E33" s="3">
-        <v>4843600</v>
+        <v>1633600</v>
       </c>
       <c r="F33" s="3">
-        <v>5781100</v>
+        <v>4839500</v>
       </c>
       <c r="G33" s="3">
-        <v>5705400</v>
+        <v>5776300</v>
       </c>
       <c r="H33" s="3">
-        <v>5316600</v>
+        <v>5700600</v>
       </c>
       <c r="I33" s="3">
-        <v>5721100</v>
+        <v>5312200</v>
       </c>
       <c r="J33" s="3">
+        <v>5716300</v>
+      </c>
+      <c r="K33" s="3">
         <v>5395900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4873000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4191900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5066900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1635000</v>
+        <v>3895600</v>
       </c>
       <c r="E35" s="3">
-        <v>4843600</v>
+        <v>1633600</v>
       </c>
       <c r="F35" s="3">
-        <v>5781100</v>
+        <v>4839500</v>
       </c>
       <c r="G35" s="3">
-        <v>5705400</v>
+        <v>5776300</v>
       </c>
       <c r="H35" s="3">
-        <v>5316600</v>
+        <v>5700600</v>
       </c>
       <c r="I35" s="3">
-        <v>5721100</v>
+        <v>5312200</v>
       </c>
       <c r="J35" s="3">
+        <v>5716300</v>
+      </c>
+      <c r="K35" s="3">
         <v>5395900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4873000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4191900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5066900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40816</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21743800</v>
+        <v>51368700</v>
       </c>
       <c r="E41" s="3">
-        <v>14701500</v>
+        <v>21725600</v>
       </c>
       <c r="F41" s="3">
-        <v>19929500</v>
+        <v>14689100</v>
       </c>
       <c r="G41" s="3">
-        <v>27932300</v>
+        <v>19912700</v>
       </c>
       <c r="H41" s="3">
-        <v>14176200</v>
+        <v>27908800</v>
       </c>
       <c r="I41" s="3">
-        <v>11970300</v>
+        <v>14164300</v>
       </c>
       <c r="J41" s="3">
+        <v>11960200</v>
+      </c>
+      <c r="K41" s="3">
         <v>26402300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28090300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16096300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18001400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38605600</v>
+        <v>24113900</v>
       </c>
       <c r="E42" s="3">
-        <v>34155700</v>
+        <v>38573100</v>
       </c>
       <c r="F42" s="3">
-        <v>37103500</v>
+        <v>34127100</v>
       </c>
       <c r="G42" s="3">
-        <v>39473800</v>
+        <v>37072300</v>
       </c>
       <c r="H42" s="3">
-        <v>44243000</v>
+        <v>39440600</v>
       </c>
       <c r="I42" s="3">
-        <v>60410900</v>
+        <v>44205900</v>
       </c>
       <c r="J42" s="3">
+        <v>60360100</v>
+      </c>
+      <c r="K42" s="3">
         <v>64504800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>91608100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35512300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>41083500</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,32 +2048,35 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E47" s="3">
         <v>43600</v>
       </c>
-      <c r="E47" s="3">
-        <v>92200</v>
-      </c>
       <c r="F47" s="3">
-        <v>82200</v>
+        <v>92100</v>
       </c>
       <c r="G47" s="3">
-        <v>42900</v>
+        <v>82100</v>
       </c>
       <c r="H47" s="3">
-        <v>518800</v>
+        <v>42800</v>
       </c>
       <c r="I47" s="3">
-        <v>540200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
+        <v>518400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>539800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -1983,81 +2087,90 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2794100</v>
+        <v>2037000</v>
       </c>
       <c r="E48" s="3">
-        <v>825400</v>
+        <v>2791700</v>
       </c>
       <c r="F48" s="3">
-        <v>949700</v>
+        <v>824700</v>
       </c>
       <c r="G48" s="3">
-        <v>1062600</v>
+        <v>948900</v>
       </c>
       <c r="H48" s="3">
-        <v>1241300</v>
+        <v>1061700</v>
       </c>
       <c r="I48" s="3">
-        <v>1137600</v>
+        <v>1240200</v>
       </c>
       <c r="J48" s="3">
+        <v>1136700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1037600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1697800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>804400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>840200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8215800</v>
+        <v>7217800</v>
       </c>
       <c r="E49" s="3">
-        <v>8541600</v>
+        <v>8208900</v>
       </c>
       <c r="F49" s="3">
-        <v>8405800</v>
+        <v>8534400</v>
       </c>
       <c r="G49" s="3">
-        <v>8326500</v>
+        <v>8398800</v>
       </c>
       <c r="H49" s="3">
-        <v>8232200</v>
+        <v>8319500</v>
       </c>
       <c r="I49" s="3">
-        <v>8270800</v>
+        <v>8225300</v>
       </c>
       <c r="J49" s="3">
+        <v>8263800</v>
+      </c>
+      <c r="K49" s="3">
         <v>9008200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17847600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8584800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8546800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2189500</v>
+        <v>4730300</v>
       </c>
       <c r="E52" s="3">
-        <v>1463500</v>
+        <v>2187700</v>
       </c>
       <c r="F52" s="3">
-        <v>843200</v>
+        <v>1462300</v>
       </c>
       <c r="G52" s="3">
-        <v>794600</v>
+        <v>842500</v>
       </c>
       <c r="H52" s="3">
-        <v>1109100</v>
+        <v>794000</v>
       </c>
       <c r="I52" s="3">
-        <v>984000</v>
+        <v>1108100</v>
       </c>
       <c r="J52" s="3">
+        <v>983200</v>
+      </c>
+      <c r="K52" s="3">
         <v>998300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1282100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1539500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1923600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>651677000</v>
+        <v>668216000</v>
       </c>
       <c r="E54" s="3">
-        <v>647875000</v>
+        <v>651129000</v>
       </c>
       <c r="F54" s="3">
-        <v>628556000</v>
+        <v>647331000</v>
       </c>
       <c r="G54" s="3">
-        <v>608750000</v>
+        <v>628029000</v>
       </c>
       <c r="H54" s="3">
-        <v>599694000</v>
+        <v>608239000</v>
       </c>
       <c r="I54" s="3">
-        <v>580367000</v>
+        <v>599190000</v>
       </c>
       <c r="J54" s="3">
+        <v>579879000</v>
+      </c>
+      <c r="K54" s="3">
         <v>550844000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>506963000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>477538000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>486317000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,116 +2397,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>893300</v>
+        <v>993900</v>
       </c>
       <c r="E57" s="3">
-        <v>824600</v>
+        <v>892500</v>
       </c>
       <c r="F57" s="3">
-        <v>1007600</v>
+        <v>824000</v>
       </c>
       <c r="G57" s="3">
-        <v>792500</v>
+        <v>1006700</v>
       </c>
       <c r="H57" s="3">
-        <v>803200</v>
+        <v>791800</v>
       </c>
       <c r="I57" s="3">
-        <v>911800</v>
+        <v>802500</v>
       </c>
       <c r="J57" s="3">
+        <v>911100</v>
+      </c>
+      <c r="K57" s="3">
         <v>736000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>736800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>648800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>725600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35804300</v>
+        <v>45851700</v>
       </c>
       <c r="E58" s="3">
-        <v>29389400</v>
+        <v>35774300</v>
       </c>
       <c r="F58" s="3">
-        <v>22270500</v>
+        <v>29364700</v>
       </c>
       <c r="G58" s="3">
-        <v>26504500</v>
+        <v>22251800</v>
       </c>
       <c r="H58" s="3">
-        <v>18867600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>26482300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>18851700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>35714600</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1026900</v>
+        <v>724700</v>
       </c>
       <c r="E59" s="3">
-        <v>1993700</v>
+        <v>1026000</v>
       </c>
       <c r="F59" s="3">
-        <v>2332500</v>
+        <v>1992100</v>
       </c>
       <c r="G59" s="3">
-        <v>2168800</v>
+        <v>2330500</v>
       </c>
       <c r="H59" s="3">
-        <v>2118100</v>
+        <v>2167000</v>
       </c>
       <c r="I59" s="3">
-        <v>2261700</v>
+        <v>2116300</v>
       </c>
       <c r="J59" s="3">
+        <v>2259800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2557600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2794800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2367300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2388700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>111816000</v>
+        <v>96519200</v>
       </c>
       <c r="E61" s="3">
-        <v>126802000</v>
+        <v>111722000</v>
       </c>
       <c r="F61" s="3">
-        <v>115917000</v>
+        <v>126696000</v>
       </c>
       <c r="G61" s="3">
-        <v>108954000</v>
+        <v>115820000</v>
       </c>
       <c r="H61" s="3">
-        <v>116948000</v>
+        <v>108863000</v>
       </c>
       <c r="I61" s="3">
-        <v>106498000</v>
+        <v>116850000</v>
       </c>
       <c r="J61" s="3">
+        <v>106408000</v>
+      </c>
+      <c r="K61" s="3">
         <v>93818400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>88391000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6747400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5930300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3868100</v>
+        <v>2614000</v>
       </c>
       <c r="E62" s="3">
-        <v>2296000</v>
+        <v>3864900</v>
       </c>
       <c r="F62" s="3">
-        <v>1408500</v>
+        <v>2294100</v>
       </c>
       <c r="G62" s="3">
-        <v>1209100</v>
+        <v>1407300</v>
       </c>
       <c r="H62" s="3">
-        <v>1242000</v>
+        <v>1208100</v>
       </c>
       <c r="I62" s="3">
-        <v>1240500</v>
+        <v>1240900</v>
       </c>
       <c r="J62" s="3">
+        <v>1239500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1420600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1332700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1839500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1711000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>603067000</v>
+        <v>616783000</v>
       </c>
       <c r="E66" s="3">
-        <v>601102000</v>
+        <v>602561000</v>
       </c>
       <c r="F66" s="3">
-        <v>582450000</v>
+        <v>600597000</v>
       </c>
       <c r="G66" s="3">
-        <v>564954000</v>
+        <v>581961000</v>
       </c>
       <c r="H66" s="3">
-        <v>558161000</v>
+        <v>564479000</v>
       </c>
       <c r="I66" s="3">
-        <v>542423000</v>
+        <v>557693000</v>
       </c>
       <c r="J66" s="3">
+        <v>541967000</v>
+      </c>
+      <c r="K66" s="3">
         <v>516217000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>473213000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>446232000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>455969000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20178900</v>
+        <v>21847000</v>
       </c>
       <c r="E72" s="3">
-        <v>20589100</v>
+        <v>20161900</v>
       </c>
       <c r="F72" s="3">
-        <v>21008500</v>
+        <v>20571800</v>
       </c>
       <c r="G72" s="3">
-        <v>19660800</v>
+        <v>20990900</v>
       </c>
       <c r="H72" s="3">
-        <v>18360200</v>
+        <v>19644300</v>
       </c>
       <c r="I72" s="3">
-        <v>17416200</v>
+        <v>18344800</v>
       </c>
       <c r="J72" s="3">
+        <v>17401600</v>
+      </c>
+      <c r="K72" s="3">
         <v>15518300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14370900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12795800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12013800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48609200</v>
+        <v>51433000</v>
       </c>
       <c r="E76" s="3">
-        <v>46773400</v>
+        <v>48568400</v>
       </c>
       <c r="F76" s="3">
-        <v>46106700</v>
+        <v>46734200</v>
       </c>
       <c r="G76" s="3">
-        <v>43796400</v>
+        <v>46068000</v>
       </c>
       <c r="H76" s="3">
-        <v>41532600</v>
+        <v>43759600</v>
       </c>
       <c r="I76" s="3">
-        <v>37943800</v>
+        <v>41497700</v>
       </c>
       <c r="J76" s="3">
+        <v>37912000</v>
+      </c>
+      <c r="K76" s="3">
         <v>34626700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33750000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31306200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30348900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40816</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1635000</v>
+        <v>3895600</v>
       </c>
       <c r="E81" s="3">
-        <v>4843600</v>
+        <v>1633600</v>
       </c>
       <c r="F81" s="3">
-        <v>5781100</v>
+        <v>4839500</v>
       </c>
       <c r="G81" s="3">
-        <v>5705400</v>
+        <v>5776300</v>
       </c>
       <c r="H81" s="3">
-        <v>5316600</v>
+        <v>5700600</v>
       </c>
       <c r="I81" s="3">
-        <v>5721100</v>
+        <v>5312200</v>
       </c>
       <c r="J81" s="3">
+        <v>5716300</v>
+      </c>
+      <c r="K81" s="3">
         <v>5395900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4873000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4191900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5066900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1767200</v>
+        <v>2180600</v>
       </c>
       <c r="E83" s="3">
-        <v>771100</v>
+        <v>1765700</v>
       </c>
       <c r="F83" s="3">
-        <v>817500</v>
+        <v>770400</v>
       </c>
       <c r="G83" s="3">
-        <v>906800</v>
+        <v>816800</v>
       </c>
       <c r="H83" s="3">
-        <v>863200</v>
+        <v>906100</v>
       </c>
       <c r="I83" s="3">
-        <v>1194100</v>
+        <v>862500</v>
       </c>
       <c r="J83" s="3">
+        <v>1193100</v>
+      </c>
+      <c r="K83" s="3">
         <v>728900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>653700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>601400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>523200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41912000</v>
+        <v>35987700</v>
       </c>
       <c r="E89" s="3">
-        <v>5076500</v>
+        <v>41876800</v>
       </c>
       <c r="F89" s="3">
-        <v>14127600</v>
+        <v>5072300</v>
       </c>
       <c r="G89" s="3">
-        <v>2027300</v>
+        <v>14115800</v>
       </c>
       <c r="H89" s="3">
-        <v>3928200</v>
+        <v>2025600</v>
       </c>
       <c r="I89" s="3">
-        <v>-386600</v>
+        <v>3924900</v>
       </c>
       <c r="J89" s="3">
+        <v>-386300</v>
+      </c>
+      <c r="K89" s="3">
         <v>20273900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18496900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10998100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5709700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-171500</v>
+        <v>-167100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200100</v>
+        <v>-171400</v>
       </c>
       <c r="F91" s="3">
-        <v>-221500</v>
+        <v>-199900</v>
       </c>
       <c r="G91" s="3">
-        <v>-188700</v>
+        <v>-221300</v>
       </c>
       <c r="H91" s="3">
-        <v>-372300</v>
+        <v>-188500</v>
       </c>
       <c r="I91" s="3">
-        <v>-483800</v>
+        <v>-372000</v>
       </c>
       <c r="J91" s="3">
+        <v>-483400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-368000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-219800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-178300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-830100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13918300</v>
+        <v>4014800</v>
       </c>
       <c r="E94" s="3">
-        <v>-7695500</v>
+        <v>-13906600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1157700</v>
+        <v>-7689100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1213400</v>
+        <v>-1156700</v>
       </c>
       <c r="H94" s="3">
-        <v>-5177300</v>
+        <v>-1212400</v>
       </c>
       <c r="I94" s="3">
-        <v>-13373700</v>
+        <v>-5172900</v>
       </c>
       <c r="J94" s="3">
+        <v>-13362500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10419600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5635800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4421900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4543700</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1799400</v>
+        <v>-2032000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3556600</v>
+        <v>-1797900</v>
       </c>
       <c r="F96" s="3">
-        <v>-4122500</v>
+        <v>-3553600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3457900</v>
+        <v>-4119100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3860300</v>
+        <v>-3455000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3101400</v>
+        <v>-3857000</v>
       </c>
       <c r="J96" s="3">
+        <v>-3098800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4171100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3635700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2865400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2718100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20582600</v>
+        <v>-10781400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2596100</v>
+        <v>-20565300</v>
       </c>
       <c r="F100" s="3">
-        <v>-7926300</v>
+        <v>-2594000</v>
       </c>
       <c r="G100" s="3">
-        <v>394500</v>
+        <v>-7919700</v>
       </c>
       <c r="H100" s="3">
-        <v>3267900</v>
+        <v>394100</v>
       </c>
       <c r="I100" s="3">
-        <v>3939600</v>
+        <v>3265100</v>
       </c>
       <c r="J100" s="3">
+        <v>3936300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-690300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14668100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8889000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6668300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-215100</v>
+        <v>212800</v>
       </c>
       <c r="E101" s="3">
-        <v>406600</v>
+        <v>-214900</v>
       </c>
       <c r="F101" s="3">
-        <v>674600</v>
+        <v>406300</v>
       </c>
       <c r="G101" s="3">
-        <v>-215800</v>
+        <v>674000</v>
       </c>
       <c r="H101" s="3">
-        <v>-414500</v>
+        <v>-215600</v>
       </c>
       <c r="I101" s="3">
-        <v>1967300</v>
+        <v>-414100</v>
       </c>
       <c r="J101" s="3">
+        <v>1965600</v>
+      </c>
+      <c r="K101" s="3">
         <v>884000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1211200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-329700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>723400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7196000</v>
+        <v>29433900</v>
       </c>
       <c r="E102" s="3">
-        <v>-4808500</v>
+        <v>7190000</v>
       </c>
       <c r="F102" s="3">
-        <v>5718200</v>
+        <v>-4804500</v>
       </c>
       <c r="G102" s="3">
-        <v>992600</v>
+        <v>5713400</v>
       </c>
       <c r="H102" s="3">
-        <v>1604300</v>
+        <v>991700</v>
       </c>
       <c r="I102" s="3">
-        <v>-7853500</v>
+        <v>1602900</v>
       </c>
       <c r="J102" s="3">
+        <v>-7846900</v>
+      </c>
+      <c r="K102" s="3">
         <v>10048000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-595800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2642500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8557700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBK_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15906500</v>
+        <v>16240700</v>
       </c>
       <c r="E8" s="3">
-        <v>19311600</v>
+        <v>19717300</v>
       </c>
       <c r="F8" s="3">
-        <v>23720500</v>
+        <v>24218800</v>
       </c>
       <c r="G8" s="3">
-        <v>23255700</v>
+        <v>23744300</v>
       </c>
       <c r="H8" s="3">
-        <v>22299600</v>
+        <v>22768100</v>
       </c>
       <c r="I8" s="3">
-        <v>22720900</v>
+        <v>23198200</v>
       </c>
       <c r="J8" s="3">
-        <v>23058600</v>
+        <v>23543100</v>
       </c>
       <c r="K8" s="3">
         <v>23044400</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1198100</v>
+        <v>-1223300</v>
       </c>
       <c r="E15" s="3">
-        <v>-1273800</v>
+        <v>-1300500</v>
       </c>
       <c r="F15" s="3">
-        <v>-752600</v>
+        <v>-768400</v>
       </c>
       <c r="G15" s="3">
-        <v>-815400</v>
+        <v>-832500</v>
       </c>
       <c r="H15" s="3">
-        <v>-1344500</v>
+        <v>-1372700</v>
       </c>
       <c r="I15" s="3">
-        <v>-876800</v>
+        <v>-895200</v>
       </c>
       <c r="J15" s="3">
-        <v>-1193100</v>
+        <v>-1218200</v>
       </c>
       <c r="K15" s="3">
         <v>-728900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3448600</v>
+        <v>3521100</v>
       </c>
       <c r="E17" s="3">
-        <v>7957500</v>
+        <v>8124700</v>
       </c>
       <c r="F17" s="3">
-        <v>12215800</v>
+        <v>12472500</v>
       </c>
       <c r="G17" s="3">
-        <v>11978100</v>
+        <v>12229700</v>
       </c>
       <c r="H17" s="3">
-        <v>11830300</v>
+        <v>12078800</v>
       </c>
       <c r="I17" s="3">
-        <v>12707800</v>
+        <v>12974700</v>
       </c>
       <c r="J17" s="3">
-        <v>13409600</v>
+        <v>13691300</v>
       </c>
       <c r="K17" s="3">
         <v>13831800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12457900</v>
+        <v>12719600</v>
       </c>
       <c r="E18" s="3">
-        <v>11354000</v>
+        <v>11592600</v>
       </c>
       <c r="F18" s="3">
-        <v>11504700</v>
+        <v>11746400</v>
       </c>
       <c r="G18" s="3">
-        <v>11277600</v>
+        <v>11514600</v>
       </c>
       <c r="H18" s="3">
-        <v>10469400</v>
+        <v>10689300</v>
       </c>
       <c r="I18" s="3">
-        <v>10013100</v>
+        <v>10223500</v>
       </c>
       <c r="J18" s="3">
-        <v>9649000</v>
+        <v>9851700</v>
       </c>
       <c r="K18" s="3">
         <v>9212600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6388200</v>
+        <v>-6522400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8308100</v>
+        <v>-8482600</v>
       </c>
       <c r="F20" s="3">
-        <v>-4543900</v>
+        <v>-4639400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2901700</v>
+        <v>-2962700</v>
       </c>
       <c r="H20" s="3">
-        <v>-2247700</v>
+        <v>-2294900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2413300</v>
+        <v>-2464000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1498000</v>
+        <v>-1529400</v>
       </c>
       <c r="K20" s="3">
         <v>-1537800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8245100</v>
+        <v>8433400</v>
       </c>
       <c r="E21" s="3">
-        <v>4807400</v>
+        <v>4920600</v>
       </c>
       <c r="F21" s="3">
-        <v>7729400</v>
+        <v>7897100</v>
       </c>
       <c r="G21" s="3">
-        <v>9190800</v>
+        <v>9389500</v>
       </c>
       <c r="H21" s="3">
-        <v>9125600</v>
+        <v>9323600</v>
       </c>
       <c r="I21" s="3">
-        <v>8460300</v>
+        <v>8644000</v>
       </c>
       <c r="J21" s="3">
-        <v>9341300</v>
+        <v>9545800</v>
       </c>
       <c r="K21" s="3">
         <v>8412400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6069700</v>
+        <v>6197200</v>
       </c>
       <c r="E23" s="3">
-        <v>3045900</v>
+        <v>3109900</v>
       </c>
       <c r="F23" s="3">
-        <v>6960800</v>
+        <v>7107000</v>
       </c>
       <c r="G23" s="3">
-        <v>8375900</v>
+        <v>8551900</v>
       </c>
       <c r="H23" s="3">
-        <v>8221700</v>
+        <v>8394400</v>
       </c>
       <c r="I23" s="3">
-        <v>7599800</v>
+        <v>7759500</v>
       </c>
       <c r="J23" s="3">
-        <v>8151000</v>
+        <v>8322300</v>
       </c>
       <c r="K23" s="3">
         <v>7674800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2169100</v>
+        <v>2214700</v>
       </c>
       <c r="E24" s="3">
-        <v>1409400</v>
+        <v>1439000</v>
       </c>
       <c r="F24" s="3">
-        <v>2112700</v>
+        <v>2157100</v>
       </c>
       <c r="G24" s="3">
-        <v>2593200</v>
+        <v>2647700</v>
       </c>
       <c r="H24" s="3">
-        <v>2511900</v>
+        <v>2564600</v>
       </c>
       <c r="I24" s="3">
-        <v>2273400</v>
+        <v>2321100</v>
       </c>
       <c r="J24" s="3">
-        <v>2390500</v>
+        <v>2440700</v>
       </c>
       <c r="K24" s="3">
         <v>2226000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3900600</v>
+        <v>3982500</v>
       </c>
       <c r="E26" s="3">
-        <v>1636500</v>
+        <v>1670900</v>
       </c>
       <c r="F26" s="3">
-        <v>4848100</v>
+        <v>4949900</v>
       </c>
       <c r="G26" s="3">
-        <v>5782700</v>
+        <v>5904200</v>
       </c>
       <c r="H26" s="3">
-        <v>5709900</v>
+        <v>5829800</v>
       </c>
       <c r="I26" s="3">
-        <v>5326400</v>
+        <v>5438300</v>
       </c>
       <c r="J26" s="3">
-        <v>5760600</v>
+        <v>5881600</v>
       </c>
       <c r="K26" s="3">
         <v>5448800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3895600</v>
+        <v>3977400</v>
       </c>
       <c r="E27" s="3">
-        <v>1633600</v>
+        <v>1668000</v>
       </c>
       <c r="F27" s="3">
-        <v>4839500</v>
+        <v>4941200</v>
       </c>
       <c r="G27" s="3">
-        <v>5776300</v>
+        <v>5897600</v>
       </c>
       <c r="H27" s="3">
-        <v>5700600</v>
+        <v>5820300</v>
       </c>
       <c r="I27" s="3">
-        <v>5312200</v>
+        <v>5423800</v>
       </c>
       <c r="J27" s="3">
-        <v>5716300</v>
+        <v>5836400</v>
       </c>
       <c r="K27" s="3">
         <v>5395900</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6388200</v>
+        <v>6522400</v>
       </c>
       <c r="E32" s="3">
-        <v>8308100</v>
+        <v>8482600</v>
       </c>
       <c r="F32" s="3">
-        <v>4543900</v>
+        <v>4639400</v>
       </c>
       <c r="G32" s="3">
-        <v>2901700</v>
+        <v>2962700</v>
       </c>
       <c r="H32" s="3">
-        <v>2247700</v>
+        <v>2294900</v>
       </c>
       <c r="I32" s="3">
-        <v>2413300</v>
+        <v>2464000</v>
       </c>
       <c r="J32" s="3">
-        <v>1498000</v>
+        <v>1529400</v>
       </c>
       <c r="K32" s="3">
         <v>1537800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3895600</v>
+        <v>3977400</v>
       </c>
       <c r="E33" s="3">
-        <v>1633600</v>
+        <v>1668000</v>
       </c>
       <c r="F33" s="3">
-        <v>4839500</v>
+        <v>4941200</v>
       </c>
       <c r="G33" s="3">
-        <v>5776300</v>
+        <v>5897600</v>
       </c>
       <c r="H33" s="3">
-        <v>5700600</v>
+        <v>5820300</v>
       </c>
       <c r="I33" s="3">
-        <v>5312200</v>
+        <v>5423800</v>
       </c>
       <c r="J33" s="3">
-        <v>5716300</v>
+        <v>5836400</v>
       </c>
       <c r="K33" s="3">
         <v>5395900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3895600</v>
+        <v>3977400</v>
       </c>
       <c r="E35" s="3">
-        <v>1633600</v>
+        <v>1668000</v>
       </c>
       <c r="F35" s="3">
-        <v>4839500</v>
+        <v>4941200</v>
       </c>
       <c r="G35" s="3">
-        <v>5776300</v>
+        <v>5897600</v>
       </c>
       <c r="H35" s="3">
-        <v>5700600</v>
+        <v>5820300</v>
       </c>
       <c r="I35" s="3">
-        <v>5312200</v>
+        <v>5423800</v>
       </c>
       <c r="J35" s="3">
-        <v>5716300</v>
+        <v>5836400</v>
       </c>
       <c r="K35" s="3">
         <v>5395900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>51368700</v>
+        <v>52447900</v>
       </c>
       <c r="E41" s="3">
-        <v>21725600</v>
+        <v>22182000</v>
       </c>
       <c r="F41" s="3">
-        <v>14689100</v>
+        <v>14997700</v>
       </c>
       <c r="G41" s="3">
-        <v>19912700</v>
+        <v>20331100</v>
       </c>
       <c r="H41" s="3">
-        <v>27908800</v>
+        <v>28495200</v>
       </c>
       <c r="I41" s="3">
-        <v>14164300</v>
+        <v>14461900</v>
       </c>
       <c r="J41" s="3">
-        <v>11960200</v>
+        <v>12211500</v>
       </c>
       <c r="K41" s="3">
         <v>26402300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24113900</v>
+        <v>24620500</v>
       </c>
       <c r="E42" s="3">
-        <v>38573100</v>
+        <v>39383500</v>
       </c>
       <c r="F42" s="3">
-        <v>34127100</v>
+        <v>34844000</v>
       </c>
       <c r="G42" s="3">
-        <v>37072300</v>
+        <v>37851100</v>
       </c>
       <c r="H42" s="3">
-        <v>39440600</v>
+        <v>40269200</v>
       </c>
       <c r="I42" s="3">
-        <v>44205900</v>
+        <v>45134600</v>
       </c>
       <c r="J42" s="3">
-        <v>60360100</v>
+        <v>61628200</v>
       </c>
       <c r="K42" s="3">
         <v>64504800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41400</v>
+        <v>42300</v>
       </c>
       <c r="E47" s="3">
-        <v>43600</v>
+        <v>44500</v>
       </c>
       <c r="F47" s="3">
-        <v>92100</v>
+        <v>94000</v>
       </c>
       <c r="G47" s="3">
-        <v>82100</v>
+        <v>83800</v>
       </c>
       <c r="H47" s="3">
-        <v>42800</v>
+        <v>43700</v>
       </c>
       <c r="I47" s="3">
-        <v>518400</v>
+        <v>529300</v>
       </c>
       <c r="J47" s="3">
-        <v>539800</v>
+        <v>551100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2037000</v>
+        <v>2079800</v>
       </c>
       <c r="E48" s="3">
-        <v>2791700</v>
+        <v>2850400</v>
       </c>
       <c r="F48" s="3">
-        <v>824700</v>
+        <v>842000</v>
       </c>
       <c r="G48" s="3">
-        <v>948900</v>
+        <v>968800</v>
       </c>
       <c r="H48" s="3">
-        <v>1061700</v>
+        <v>1084000</v>
       </c>
       <c r="I48" s="3">
-        <v>1240200</v>
+        <v>1266300</v>
       </c>
       <c r="J48" s="3">
-        <v>1136700</v>
+        <v>1160600</v>
       </c>
       <c r="K48" s="3">
         <v>1037600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7217800</v>
+        <v>7369500</v>
       </c>
       <c r="E49" s="3">
-        <v>8208900</v>
+        <v>8381300</v>
       </c>
       <c r="F49" s="3">
-        <v>8534400</v>
+        <v>8713700</v>
       </c>
       <c r="G49" s="3">
-        <v>8398800</v>
+        <v>8575200</v>
       </c>
       <c r="H49" s="3">
-        <v>8319500</v>
+        <v>8494300</v>
       </c>
       <c r="I49" s="3">
-        <v>8225300</v>
+        <v>8398100</v>
       </c>
       <c r="J49" s="3">
-        <v>8263800</v>
+        <v>8437400</v>
       </c>
       <c r="K49" s="3">
         <v>9008200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4730300</v>
+        <v>4829600</v>
       </c>
       <c r="E52" s="3">
-        <v>2187700</v>
+        <v>2233700</v>
       </c>
       <c r="F52" s="3">
-        <v>1462300</v>
+        <v>1493000</v>
       </c>
       <c r="G52" s="3">
-        <v>842500</v>
+        <v>860200</v>
       </c>
       <c r="H52" s="3">
-        <v>794000</v>
+        <v>810600</v>
       </c>
       <c r="I52" s="3">
-        <v>1108100</v>
+        <v>1131400</v>
       </c>
       <c r="J52" s="3">
-        <v>983200</v>
+        <v>1003800</v>
       </c>
       <c r="K52" s="3">
         <v>998300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>668216000</v>
+        <v>682254000</v>
       </c>
       <c r="E54" s="3">
-        <v>651129000</v>
+        <v>664809000</v>
       </c>
       <c r="F54" s="3">
-        <v>647331000</v>
+        <v>660930000</v>
       </c>
       <c r="G54" s="3">
-        <v>628029000</v>
+        <v>641223000</v>
       </c>
       <c r="H54" s="3">
-        <v>608239000</v>
+        <v>621017000</v>
       </c>
       <c r="I54" s="3">
-        <v>599190000</v>
+        <v>611778000</v>
       </c>
       <c r="J54" s="3">
-        <v>579879000</v>
+        <v>592062000</v>
       </c>
       <c r="K54" s="3">
         <v>550844000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>993900</v>
+        <v>1014800</v>
       </c>
       <c r="E57" s="3">
-        <v>892500</v>
+        <v>911300</v>
       </c>
       <c r="F57" s="3">
-        <v>824000</v>
+        <v>841300</v>
       </c>
       <c r="G57" s="3">
-        <v>1006700</v>
+        <v>1027900</v>
       </c>
       <c r="H57" s="3">
-        <v>791800</v>
+        <v>808500</v>
       </c>
       <c r="I57" s="3">
-        <v>802500</v>
+        <v>819400</v>
       </c>
       <c r="J57" s="3">
-        <v>911100</v>
+        <v>930200</v>
       </c>
       <c r="K57" s="3">
         <v>736000</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45851700</v>
+        <v>46814900</v>
       </c>
       <c r="E58" s="3">
-        <v>35774300</v>
+        <v>36525800</v>
       </c>
       <c r="F58" s="3">
-        <v>29364700</v>
+        <v>29981600</v>
       </c>
       <c r="G58" s="3">
-        <v>22251800</v>
+        <v>22719300</v>
       </c>
       <c r="H58" s="3">
-        <v>26482300</v>
+        <v>27038600</v>
       </c>
       <c r="I58" s="3">
-        <v>18851700</v>
+        <v>19247800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>724700</v>
+        <v>739900</v>
       </c>
       <c r="E59" s="3">
-        <v>1026000</v>
+        <v>1047600</v>
       </c>
       <c r="F59" s="3">
-        <v>1992100</v>
+        <v>2033900</v>
       </c>
       <c r="G59" s="3">
-        <v>2330500</v>
+        <v>2379500</v>
       </c>
       <c r="H59" s="3">
-        <v>2167000</v>
+        <v>2212500</v>
       </c>
       <c r="I59" s="3">
-        <v>2116300</v>
+        <v>2160800</v>
       </c>
       <c r="J59" s="3">
-        <v>2259800</v>
+        <v>2307300</v>
       </c>
       <c r="K59" s="3">
         <v>2557600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>96519200</v>
+        <v>98546900</v>
       </c>
       <c r="E61" s="3">
-        <v>111722000</v>
+        <v>114070000</v>
       </c>
       <c r="F61" s="3">
-        <v>126696000</v>
+        <v>129357000</v>
       </c>
       <c r="G61" s="3">
-        <v>115820000</v>
+        <v>118253000</v>
       </c>
       <c r="H61" s="3">
-        <v>108863000</v>
+        <v>111150000</v>
       </c>
       <c r="I61" s="3">
-        <v>116850000</v>
+        <v>119305000</v>
       </c>
       <c r="J61" s="3">
-        <v>106408000</v>
+        <v>108644000</v>
       </c>
       <c r="K61" s="3">
         <v>93818400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2614000</v>
+        <v>2668900</v>
       </c>
       <c r="E62" s="3">
-        <v>3864900</v>
+        <v>3946100</v>
       </c>
       <c r="F62" s="3">
-        <v>2294100</v>
+        <v>2342300</v>
       </c>
       <c r="G62" s="3">
-        <v>1407300</v>
+        <v>1436900</v>
       </c>
       <c r="H62" s="3">
-        <v>1208100</v>
+        <v>1233500</v>
       </c>
       <c r="I62" s="3">
-        <v>1240900</v>
+        <v>1267000</v>
       </c>
       <c r="J62" s="3">
-        <v>1239500</v>
+        <v>1265500</v>
       </c>
       <c r="K62" s="3">
         <v>1420600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>616783000</v>
+        <v>629741000</v>
       </c>
       <c r="E66" s="3">
-        <v>602561000</v>
+        <v>615220000</v>
       </c>
       <c r="F66" s="3">
-        <v>600597000</v>
+        <v>613214000</v>
       </c>
       <c r="G66" s="3">
-        <v>581961000</v>
+        <v>594187000</v>
       </c>
       <c r="H66" s="3">
-        <v>564479000</v>
+        <v>576338000</v>
       </c>
       <c r="I66" s="3">
-        <v>557693000</v>
+        <v>569409000</v>
       </c>
       <c r="J66" s="3">
-        <v>541967000</v>
+        <v>553353000</v>
       </c>
       <c r="K66" s="3">
         <v>516217000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21847000</v>
+        <v>22305900</v>
       </c>
       <c r="E72" s="3">
-        <v>20161900</v>
+        <v>20585500</v>
       </c>
       <c r="F72" s="3">
-        <v>20571800</v>
+        <v>21003900</v>
       </c>
       <c r="G72" s="3">
-        <v>20990900</v>
+        <v>21431900</v>
       </c>
       <c r="H72" s="3">
-        <v>19644300</v>
+        <v>20057000</v>
       </c>
       <c r="I72" s="3">
-        <v>18344800</v>
+        <v>18730200</v>
       </c>
       <c r="J72" s="3">
-        <v>17401600</v>
+        <v>17767200</v>
       </c>
       <c r="K72" s="3">
         <v>15518300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51433000</v>
+        <v>52513500</v>
       </c>
       <c r="E76" s="3">
-        <v>48568400</v>
+        <v>49588800</v>
       </c>
       <c r="F76" s="3">
-        <v>46734200</v>
+        <v>47716000</v>
       </c>
       <c r="G76" s="3">
-        <v>46068000</v>
+        <v>47035800</v>
       </c>
       <c r="H76" s="3">
-        <v>43759600</v>
+        <v>44679000</v>
       </c>
       <c r="I76" s="3">
-        <v>41497700</v>
+        <v>42369500</v>
       </c>
       <c r="J76" s="3">
-        <v>37912000</v>
+        <v>38708400</v>
       </c>
       <c r="K76" s="3">
         <v>34626700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3895600</v>
+        <v>3977400</v>
       </c>
       <c r="E81" s="3">
-        <v>1633600</v>
+        <v>1668000</v>
       </c>
       <c r="F81" s="3">
-        <v>4839500</v>
+        <v>4941200</v>
       </c>
       <c r="G81" s="3">
-        <v>5776300</v>
+        <v>5897600</v>
       </c>
       <c r="H81" s="3">
-        <v>5700600</v>
+        <v>5820300</v>
       </c>
       <c r="I81" s="3">
-        <v>5312200</v>
+        <v>5423800</v>
       </c>
       <c r="J81" s="3">
-        <v>5716300</v>
+        <v>5836400</v>
       </c>
       <c r="K81" s="3">
         <v>5395900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2180600</v>
+        <v>2226400</v>
       </c>
       <c r="E83" s="3">
-        <v>1765700</v>
+        <v>1802800</v>
       </c>
       <c r="F83" s="3">
-        <v>770400</v>
+        <v>786600</v>
       </c>
       <c r="G83" s="3">
-        <v>816800</v>
+        <v>834000</v>
       </c>
       <c r="H83" s="3">
-        <v>906100</v>
+        <v>925100</v>
       </c>
       <c r="I83" s="3">
-        <v>862500</v>
+        <v>880600</v>
       </c>
       <c r="J83" s="3">
-        <v>1193100</v>
+        <v>1218200</v>
       </c>
       <c r="K83" s="3">
         <v>728900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35987700</v>
+        <v>36743800</v>
       </c>
       <c r="E89" s="3">
-        <v>41876800</v>
+        <v>42756600</v>
       </c>
       <c r="F89" s="3">
-        <v>5072300</v>
+        <v>5178800</v>
       </c>
       <c r="G89" s="3">
-        <v>14115800</v>
+        <v>14412300</v>
       </c>
       <c r="H89" s="3">
-        <v>2025600</v>
+        <v>2068200</v>
       </c>
       <c r="I89" s="3">
-        <v>3924900</v>
+        <v>4007300</v>
       </c>
       <c r="J89" s="3">
-        <v>-386300</v>
+        <v>-394400</v>
       </c>
       <c r="K89" s="3">
         <v>20273900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-167100</v>
+        <v>-170600</v>
       </c>
       <c r="E91" s="3">
-        <v>-171400</v>
+        <v>-175000</v>
       </c>
       <c r="F91" s="3">
-        <v>-199900</v>
+        <v>-204100</v>
       </c>
       <c r="G91" s="3">
-        <v>-221300</v>
+        <v>-226000</v>
       </c>
       <c r="H91" s="3">
-        <v>-188500</v>
+        <v>-192500</v>
       </c>
       <c r="I91" s="3">
-        <v>-372000</v>
+        <v>-379800</v>
       </c>
       <c r="J91" s="3">
-        <v>-483400</v>
+        <v>-493500</v>
       </c>
       <c r="K91" s="3">
         <v>-368000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4014800</v>
+        <v>4099200</v>
       </c>
       <c r="E94" s="3">
-        <v>-13906600</v>
+        <v>-14198700</v>
       </c>
       <c r="F94" s="3">
-        <v>-7689100</v>
+        <v>-7850600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1156700</v>
+        <v>-1181000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1212400</v>
+        <v>-1237800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5172900</v>
+        <v>-5281600</v>
       </c>
       <c r="J94" s="3">
-        <v>-13362500</v>
+        <v>-13643200</v>
       </c>
       <c r="K94" s="3">
         <v>-10419600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2032000</v>
+        <v>-2074700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1797900</v>
+        <v>-1835600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3553600</v>
+        <v>-3628200</v>
       </c>
       <c r="G96" s="3">
-        <v>-4119100</v>
+        <v>-4205600</v>
       </c>
       <c r="H96" s="3">
-        <v>-3455000</v>
+        <v>-3527600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3857000</v>
+        <v>-3938100</v>
       </c>
       <c r="J96" s="3">
-        <v>-3098800</v>
+        <v>-3163900</v>
       </c>
       <c r="K96" s="3">
         <v>-4171100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10781400</v>
+        <v>-11007900</v>
       </c>
       <c r="E100" s="3">
-        <v>-20565300</v>
+        <v>-20997400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2594000</v>
+        <v>-2648500</v>
       </c>
       <c r="G100" s="3">
-        <v>-7919700</v>
+        <v>-8086100</v>
       </c>
       <c r="H100" s="3">
-        <v>394100</v>
+        <v>402400</v>
       </c>
       <c r="I100" s="3">
-        <v>3265100</v>
+        <v>3333700</v>
       </c>
       <c r="J100" s="3">
-        <v>3936300</v>
+        <v>4019000</v>
       </c>
       <c r="K100" s="3">
         <v>-690300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>212800</v>
+        <v>217200</v>
       </c>
       <c r="E101" s="3">
-        <v>-214900</v>
+        <v>-219400</v>
       </c>
       <c r="F101" s="3">
-        <v>406300</v>
+        <v>414800</v>
       </c>
       <c r="G101" s="3">
-        <v>674000</v>
+        <v>688200</v>
       </c>
       <c r="H101" s="3">
-        <v>-215600</v>
+        <v>-220200</v>
       </c>
       <c r="I101" s="3">
-        <v>-414100</v>
+        <v>-422800</v>
       </c>
       <c r="J101" s="3">
-        <v>1965600</v>
+        <v>2006900</v>
       </c>
       <c r="K101" s="3">
         <v>884000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29433900</v>
+        <v>30052300</v>
       </c>
       <c r="E102" s="3">
-        <v>7190000</v>
+        <v>7341000</v>
       </c>
       <c r="F102" s="3">
-        <v>-4804500</v>
+        <v>-4905400</v>
       </c>
       <c r="G102" s="3">
-        <v>5713400</v>
+        <v>5833500</v>
       </c>
       <c r="H102" s="3">
-        <v>991700</v>
+        <v>1012600</v>
       </c>
       <c r="I102" s="3">
-        <v>1602900</v>
+        <v>1636600</v>
       </c>
       <c r="J102" s="3">
-        <v>-7846900</v>
+        <v>-8011700</v>
       </c>
       <c r="K102" s="3">
         <v>10048000</v>
